--- a/BackTest/2020-01-15 BackTest SOC.xlsx
+++ b/BackTest/2020-01-15 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>5599364.667140703</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>5198406.572740703</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>5226548.181840702</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>5198119.554440702</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>5493992.999540702</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>5618827.417840702</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>5481158.092340702</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>5436331.393140703</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>4856251.678940702</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>4737248.565440702</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>4504753.638540704</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>3977678.475240703</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>3945417.266440704</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -9955,11 +9955,17 @@
         <v>2165885.347541444</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>14.18</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +9998,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +10035,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +10072,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +10109,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +10146,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10183,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +10220,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +10257,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +10294,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +10331,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +10368,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10355,7 +10405,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10388,7 +10442,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10421,7 +10479,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +10516,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +10553,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +10590,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +10627,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +10664,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +10701,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +10738,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +10775,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +10812,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +10849,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +10886,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +10923,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +10960,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +10997,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11034,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +11071,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11108,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11145,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11182,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11219,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11256,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +11293,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +11330,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11367,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11404,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11441,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +11478,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +11515,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11552,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +11589,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +11626,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +11663,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +11700,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +11737,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +11774,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +11811,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +11848,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +11885,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +11922,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +11959,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +11996,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +12033,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +12070,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +12107,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +12144,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +12181,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11972,7 +12218,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +12255,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +12292,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +12329,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +12366,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +12403,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12440,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12477,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +12514,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +12551,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +12588,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +12625,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12368,7 +12662,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +12699,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +12736,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +12773,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +12810,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +12847,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +12884,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +12921,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +12958,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +12995,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12698,7 +13032,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +13065,15 @@
         <v>5635469.158581997</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +13102,15 @@
         <v>5635469.158581997</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12793,11 +13139,15 @@
         <v>5582696.660881997</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +13180,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +13213,15 @@
         <v>5364220.700181996</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,11 +13250,15 @@
         <v>5188868.353381996</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12925,11 +13287,15 @@
         <v>4969776.534181996</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12958,11 +13324,15 @@
         <v>5059983.811781996</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12995,7 +13365,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13028,7 +13402,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13061,7 +13439,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +13476,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13127,7 +13513,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +13550,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13193,7 +13587,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +13624,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13259,7 +13661,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +13698,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13325,7 +13735,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13358,7 +13772,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13391,7 +13809,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13424,7 +13846,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +13883,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13490,7 +13920,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13523,7 +13957,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13556,7 +13994,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13589,7 +14031,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13622,7 +14068,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13655,7 +14105,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +14142,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13721,7 +14179,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +14216,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13787,7 +14253,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13820,7 +14290,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13853,7 +14327,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13886,7 +14364,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13919,7 +14401,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +14438,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +14475,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14018,7 +14512,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +14549,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +14586,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14117,7 +14623,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14150,7 +14660,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14183,7 +14697,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14216,7 +14734,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +14771,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +14808,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14315,7 +14845,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14348,7 +14882,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +14919,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14414,7 +14956,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +14993,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +15030,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +15067,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +15104,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +15141,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +15178,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +15215,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +15252,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +15289,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +15326,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +15363,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +15400,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +15437,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14876,7 +15474,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +15511,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +15548,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14975,7 +15585,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15008,7 +15622,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15041,7 +15659,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15074,7 +15696,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15107,7 +15733,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +15770,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15173,7 +15807,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15206,7 +15844,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15239,7 +15881,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15272,7 +15918,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15305,7 +15955,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15338,7 +15992,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15371,7 +16029,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15404,7 +16066,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15437,7 +16103,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15470,7 +16140,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15503,7 +16177,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15536,7 +16214,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15569,7 +16251,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15602,7 +16288,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15635,7 +16325,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15668,7 +16362,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15701,7 +16399,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15734,7 +16436,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15767,7 +16473,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15800,7 +16510,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15833,7 +16547,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15866,7 +16584,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15899,7 +16621,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15932,7 +16658,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15965,7 +16695,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15998,7 +16732,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16031,7 +16769,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16064,7 +16806,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16097,7 +16843,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16130,7 +16880,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16163,7 +16917,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16196,7 +16954,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16229,7 +16991,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16262,7 +17028,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16295,7 +17065,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16328,7 +17102,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16361,7 +17139,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16394,7 +17176,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16427,7 +17213,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16460,7 +17250,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16489,11 +17283,17 @@
         <v>4474720.927533078</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>14.06</v>
+      </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16526,7 +17326,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16559,7 +17363,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16592,7 +17400,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16625,7 +17437,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16658,7 +17474,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16691,7 +17511,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16724,7 +17548,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16757,7 +17585,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16790,7 +17622,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16823,7 +17659,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16856,7 +17696,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16889,7 +17733,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16922,7 +17770,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16955,7 +17807,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16988,7 +17844,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17017,11 +17877,17 @@
         <v>3742109.265333079</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>14.01</v>
+      </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17050,11 +17916,17 @@
         <v>3843028.747283221</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>14.02</v>
+      </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17083,11 +17955,17 @@
         <v>3670215.006983221</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>14.05</v>
+      </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17116,11 +17994,17 @@
         <v>4018824.911183221</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>14</v>
+      </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17149,11 +18033,17 @@
         <v>4329227.859383222</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>14.01</v>
+      </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17182,11 +18072,17 @@
         <v>3235745.602883222</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>14.02</v>
+      </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17215,11 +18111,17 @@
         <v>3424508.743983222</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>14</v>
+      </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17248,11 +18150,17 @@
         <v>3908109.093283222</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>14.01</v>
+      </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17281,11 +18189,17 @@
         <v>4183388.086683222</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>14.03</v>
+      </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17314,7 +18228,7 @@
         <v>3709629.182783222</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>14.07</v>
@@ -17322,7 +18236,7 @@
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L513" t="n">
@@ -17353,7 +18267,7 @@
         <v>3709629.182783222</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514" t="n">
         <v>14.01</v>
@@ -17392,9 +18306,11 @@
         <v>2704456.014183222</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>14.01</v>
+      </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
@@ -17429,9 +18345,11 @@
         <v>2809840.279383222</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>14</v>
+      </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -17466,9 +18384,11 @@
         <v>2790791.686183222</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>14.01</v>
+      </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -17503,9 +18423,11 @@
         <v>2790791.686183222</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>14</v>
+      </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -17540,9 +18462,11 @@
         <v>2764836.209883221</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>14</v>
+      </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -17577,7 +18501,7 @@
         <v>2764836.209883221</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I520" t="n">
         <v>13.89</v>
@@ -17616,7 +18540,7 @@
         <v>2775191.851183221</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I521" t="n">
         <v>13.89</v>
@@ -17655,7 +18579,7 @@
         <v>2919184.671283221</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I522" t="n">
         <v>13.92</v>
@@ -17694,7 +18618,7 @@
         <v>6181179.763983222</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I523" t="n">
         <v>14</v>
@@ -17733,7 +18657,7 @@
         <v>5482566.199283222</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>14.09</v>
@@ -17772,7 +18696,7 @@
         <v>6175805.683283222</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I525" t="n">
         <v>14.07</v>
@@ -17811,7 +18735,7 @@
         <v>8119256.499083222</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I526" t="n">
         <v>14.16</v>
@@ -17850,9 +18774,11 @@
         <v>6139196.243683222</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>14.18</v>
+      </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -17887,9 +18813,11 @@
         <v>6929301.213883222</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>14.02</v>
+      </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -17924,9 +18852,11 @@
         <v>5812426.156483222</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>14.11</v>
+      </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -17961,9 +18891,11 @@
         <v>4050840.695983222</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
@@ -17998,7 +18930,7 @@
         <v>6805958.35414119</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I531" t="n">
         <v>14.08</v>
@@ -18037,9 +18969,11 @@
         <v>5998342.196941189</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>14.37</v>
+      </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -18814,9 +19748,11 @@
         <v>8733624.092141189</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>14.08</v>
+      </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -18851,9 +19787,11 @@
         <v>9313793.182441188</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>14.06</v>
+      </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -18888,9 +19826,11 @@
         <v>9137262.483841188</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>14.08</v>
+      </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
@@ -18925,9 +19865,11 @@
         <v>9920926.711341187</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>14.04</v>
+      </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -18962,9 +19904,11 @@
         <v>9529467.320841188</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>14.14</v>
+      </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -18999,9 +19943,11 @@
         <v>9205896.730941188</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>14.13</v>
+      </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -19036,9 +19982,11 @@
         <v>8741236.001141187</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>14.12</v>
+      </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -19110,9 +20058,11 @@
         <v>8924411.505541187</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>14.03</v>
+      </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
@@ -19147,9 +20097,11 @@
         <v>8687209.783941187</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>14.09</v>
+      </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
@@ -19184,9 +20136,11 @@
         <v>9010012.822241187</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>14.04</v>
+      </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -19221,9 +20175,11 @@
         <v>9556377.814741187</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>14.07</v>
+      </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
@@ -19258,7 +20214,7 @@
         <v>9122587.567748683</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I565" t="n">
         <v>14.1</v>
@@ -19297,9 +20253,11 @@
         <v>8639641.182548683</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>14.09</v>
+      </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
@@ -19334,9 +20292,11 @@
         <v>8970062.399848683</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>14.04</v>
+      </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -19371,7 +20331,7 @@
         <v>9290750.934948683</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I568" t="n">
         <v>14.06</v>
@@ -19410,7 +20370,7 @@
         <v>9522045.183048682</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I569" t="n">
         <v>14.08</v>
@@ -19449,9 +20409,11 @@
         <v>9895055.524348682</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>14.09</v>
+      </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
@@ -19486,9 +20448,11 @@
         <v>9511476.396048682</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>14.13</v>
+      </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
@@ -19523,9 +20487,11 @@
         <v>9511476.396048682</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>14.12</v>
+      </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
@@ -19671,9 +20637,11 @@
         <v>9511476.396048682</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>14.12</v>
+      </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
@@ -19708,9 +20676,11 @@
         <v>11360267.92634868</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>14.12</v>
+      </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
@@ -19745,9 +20715,11 @@
         <v>11360267.92634868</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>14.13</v>
+      </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
@@ -20078,9 +21050,11 @@
         <v>10563635.78330505</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>14.26</v>
+      </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -20189,9 +21163,11 @@
         <v>10348473.30549</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -20226,9 +21202,11 @@
         <v>10153352.61539</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>14.21</v>
+      </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -20263,9 +21241,11 @@
         <v>10765625.23499</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>14.13</v>
+      </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -20300,9 +21280,11 @@
         <v>10399807.06850304</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>14.17</v>
+      </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
@@ -20337,9 +21319,11 @@
         <v>10209899.74050304</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>14.12</v>
+      </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -20374,9 +21358,11 @@
         <v>10484673.82500304</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>14.11</v>
+      </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -20485,9 +21471,11 @@
         <v>10474055.62740304</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>14.16</v>
+      </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
@@ -20522,9 +21510,11 @@
         <v>10199317.25100304</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>14.23</v>
+      </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
@@ -20559,9 +21549,11 @@
         <v>10478283.26690304</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>14.17</v>
+      </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -20596,9 +21588,11 @@
         <v>10796318.28130304</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>14.22</v>
+      </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
@@ -20633,9 +21627,11 @@
         <v>10275294.31750304</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>14.23</v>
+      </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -20707,9 +21703,11 @@
         <v>10136518.58880304</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>14.21</v>
+      </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -23778,18 +24776,16 @@
         <v>255390310.8005123</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L687" t="n">
-        <v>1</v>
-      </c>
+      <c r="L687" t="inlineStr"/>
       <c r="M687" t="inlineStr"/>
     </row>
     <row r="688">
@@ -23819,11 +24815,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23852,15 +24844,11 @@
         <v>255260751.8186123</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23889,15 +24877,11 @@
         <v>254450702.0403123</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23926,15 +24910,11 @@
         <v>254739061.4588124</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23963,15 +24943,11 @@
         <v>254954303.0559123</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24000,15 +24976,11 @@
         <v>255028271.2760123</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24037,15 +25009,11 @@
         <v>254899882.230363</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24078,11 +25046,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24111,15 +25075,11 @@
         <v>254923715.822563</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24148,15 +25108,11 @@
         <v>254923715.822563</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24185,15 +25141,11 @@
         <v>254988364.4840136</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24222,15 +25174,11 @@
         <v>254716722.3981643</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24259,15 +25207,11 @@
         <v>254796257.9979643</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24296,15 +25240,11 @@
         <v>254684575.2393643</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24333,15 +25273,11 @@
         <v>254549454.6106643</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24370,15 +25306,11 @@
         <v>254650576.8214643</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24407,15 +25339,11 @@
         <v>254752830.3517643</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24444,15 +25372,11 @@
         <v>253520488.7532643</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24481,15 +25405,11 @@
         <v>253282009.7709643</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24518,15 +25438,11 @@
         <v>253282009.7709643</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24555,15 +25471,11 @@
         <v>252644030.6226643</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24592,15 +25504,11 @@
         <v>253002236.5152643</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24629,15 +25537,11 @@
         <v>252655511.4441643</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24666,15 +25570,11 @@
         <v>252655511.4441643</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24703,15 +25603,11 @@
         <v>252655511.4441643</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24740,15 +25636,11 @@
         <v>252407350.4066643</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24777,15 +25669,11 @@
         <v>252407350.4066643</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24814,15 +25702,11 @@
         <v>251991719.3704643</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24851,15 +25735,11 @@
         <v>251991719.3704643</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24888,15 +25768,11 @@
         <v>252667499.1481643</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24925,15 +25801,11 @@
         <v>252667499.1481643</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24962,15 +25834,11 @@
         <v>252667499.1481643</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24999,15 +25867,11 @@
         <v>252667499.1481643</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25036,16 +25900,14 @@
         <v>252557214.9576643</v>
       </c>
       <c r="H721" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
+      <c r="L721" t="n">
+        <v>1</v>
+      </c>
       <c r="M721" t="inlineStr"/>
     </row>
     <row r="722">
@@ -25071,7 +25933,7 @@
         <v>252549653.1592643</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25104,7 +25966,7 @@
         <v>250373298.1142643</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25137,7 +25999,7 @@
         <v>249427437.9152643</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -25170,7 +26032,7 @@
         <v>249116570.1970643</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -25203,7 +26065,7 @@
         <v>248847208.4519643</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -25236,7 +26098,7 @@
         <v>249420369.8992643</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -25269,7 +26131,7 @@
         <v>249150645.1927997</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -25302,7 +26164,7 @@
         <v>248656408.0106997</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -25335,7 +26197,7 @@
         <v>249032872.6909351</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -25368,7 +26230,7 @@
         <v>248548593.4060351</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25401,7 +26263,7 @@
         <v>248789318.8666351</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25434,7 +26296,7 @@
         <v>249072237.8488351</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25467,7 +26329,7 @@
         <v>248924283.8621351</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25500,7 +26362,7 @@
         <v>249139241.3657351</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25533,7 +26395,7 @@
         <v>249318794.710535</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25566,7 +26428,7 @@
         <v>249429882.023035</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25599,7 +26461,7 @@
         <v>249448936.012935</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25632,7 +26494,7 @@
         <v>249247728.4720351</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25665,7 +26527,7 @@
         <v>249247728.4720351</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25698,7 +26560,7 @@
         <v>249340041.3666592</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25731,7 +26593,7 @@
         <v>249112109.2080592</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25764,7 +26626,7 @@
         <v>249112109.2080592</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25797,7 +26659,7 @@
         <v>249112109.2080592</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25830,7 +26692,7 @@
         <v>249112109.2080592</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25863,7 +26725,7 @@
         <v>249396940.5229592</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25896,7 +26758,7 @@
         <v>248944742.0734592</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25929,7 +26791,7 @@
         <v>248752678.0868592</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25962,7 +26824,7 @@
         <v>248894790.8677592</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25995,7 +26857,7 @@
         <v>248649311.0732592</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26028,7 +26890,7 @@
         <v>248894285.6093592</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26061,7 +26923,7 @@
         <v>248739643.0492592</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26094,7 +26956,7 @@
         <v>249079695.6459974</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26127,7 +26989,7 @@
         <v>248800983.4938388</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26160,7 +27022,7 @@
         <v>248641238.4416388</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26193,7 +27055,7 @@
         <v>248499416.2018388</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26226,7 +27088,7 @@
         <v>248664460.5478388</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26259,7 +27121,7 @@
         <v>248664460.5478388</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26292,7 +27154,7 @@
         <v>249139069.1938388</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26325,7 +27187,7 @@
         <v>248616733.0772388</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -26358,7 +27220,7 @@
         <v>249162606.2910984</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -26391,7 +27253,7 @@
         <v>249321654.4696052</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -26424,7 +27286,7 @@
         <v>249255457.0522386</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26457,7 +27319,7 @@
         <v>249162083.3404553</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -26490,7 +27352,7 @@
         <v>249283145.4040553</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26523,7 +27385,7 @@
         <v>249163223.1492553</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -26556,7 +27418,7 @@
         <v>248750803.1034553</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -26589,7 +27451,7 @@
         <v>248872003.1807553</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26622,7 +27484,7 @@
         <v>248797385.4013554</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26655,7 +27517,7 @@
         <v>248797385.4013554</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -26688,7 +27550,7 @@
         <v>248960593.3693554</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26721,7 +27583,7 @@
         <v>248525164.6442553</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26754,7 +27616,7 @@
         <v>248623869.0128554</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26787,7 +27649,7 @@
         <v>248694564.7370554</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26820,7 +27682,7 @@
         <v>248352558.1171554</v>
       </c>
       <c r="H775" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26853,7 +27715,7 @@
         <v>248220793.4958554</v>
       </c>
       <c r="H776" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26886,7 +27748,7 @@
         <v>248220793.4958554</v>
       </c>
       <c r="H777" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26919,7 +27781,7 @@
         <v>248220793.4958554</v>
       </c>
       <c r="H778" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26952,7 +27814,7 @@
         <v>248250276.7682554</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26985,7 +27847,7 @@
         <v>248250276.7682554</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27018,7 +27880,7 @@
         <v>248978609.1198765</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27051,7 +27913,7 @@
         <v>248747173.5013765</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27084,7 +27946,7 @@
         <v>248873149.9789765</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27117,7 +27979,7 @@
         <v>249018048.5852765</v>
       </c>
       <c r="H784" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27150,7 +28012,7 @@
         <v>248882178.4420765</v>
       </c>
       <c r="H785" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27183,7 +28045,7 @@
         <v>248882178.4420765</v>
       </c>
       <c r="H786" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27216,7 +28078,7 @@
         <v>249089612.9099576</v>
       </c>
       <c r="H787" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27249,7 +28111,7 @@
         <v>248877022.8744576</v>
       </c>
       <c r="H788" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -27282,7 +28144,7 @@
         <v>248877022.8744576</v>
       </c>
       <c r="H789" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27315,7 +28177,7 @@
         <v>248856334.2744576</v>
       </c>
       <c r="H790" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27348,7 +28210,7 @@
         <v>248953238.9917576</v>
       </c>
       <c r="H791" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27381,7 +28243,7 @@
         <v>248953238.9917576</v>
       </c>
       <c r="H792" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -27414,7 +28276,7 @@
         <v>248899566.6740576</v>
       </c>
       <c r="H793" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -27447,7 +28309,7 @@
         <v>248958805.7569576</v>
       </c>
       <c r="H794" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -27480,7 +28342,7 @@
         <v>248918717.5614576</v>
       </c>
       <c r="H795" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -27513,7 +28375,7 @@
         <v>248918717.5614576</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -27546,7 +28408,7 @@
         <v>248843391.0847576</v>
       </c>
       <c r="H797" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -27579,7 +28441,7 @@
         <v>248674663.4077576</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -27612,7 +28474,7 @@
         <v>248725821.7420576</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -27645,7 +28507,7 @@
         <v>248562051.7690576</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27678,7 +28540,7 @@
         <v>248562051.7690576</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27711,7 +28573,7 @@
         <v>248626790.1385576</v>
       </c>
       <c r="H802" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27744,7 +28606,7 @@
         <v>248573106.8907576</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27777,7 +28639,7 @@
         <v>248513629.0301576</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27810,7 +28672,7 @@
         <v>248513629.0301576</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27843,7 +28705,7 @@
         <v>248537062.6646576</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27876,7 +28738,7 @@
         <v>248735068.5692576</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27909,7 +28771,7 @@
         <v>248602222.4978576</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27942,7 +28804,7 @@
         <v>248594434.4049576</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27975,7 +28837,7 @@
         <v>248657295.4212576</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -28008,7 +28870,7 @@
         <v>248929231.7271866</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -28041,7 +28903,7 @@
         <v>248744917.7627866</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28074,7 +28936,7 @@
         <v>248798861.4828866</v>
       </c>
       <c r="H813" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28107,7 +28969,7 @@
         <v>248730776.4640866</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28140,7 +29002,7 @@
         <v>248730776.4640866</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28173,7 +29035,7 @@
         <v>248611869.0345866</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28206,7 +29068,7 @@
         <v>249026069.5895866</v>
       </c>
       <c r="H817" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28239,7 +29101,7 @@
         <v>249278315.4452866</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -28272,7 +29134,7 @@
         <v>249444468.5499866</v>
       </c>
       <c r="H819" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28305,7 +29167,7 @@
         <v>249039515.6017866</v>
       </c>
       <c r="H820" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -28338,7 +29200,7 @@
         <v>249039515.6017866</v>
       </c>
       <c r="H821" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28371,7 +29233,7 @@
         <v>249039515.6017866</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -28404,7 +29266,7 @@
         <v>249039515.6017866</v>
       </c>
       <c r="H823" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28437,7 +29299,7 @@
         <v>249039515.6017866</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -28470,7 +29332,7 @@
         <v>248501981.0299866</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28503,7 +29365,7 @@
         <v>248364857.9614866</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28536,7 +29398,7 @@
         <v>248694056.3891866</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28569,7 +29431,7 @@
         <v>248901384.9780866</v>
       </c>
       <c r="H828" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -28602,7 +29464,7 @@
         <v>248663870.9557866</v>
       </c>
       <c r="H829" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -28635,7 +29497,7 @@
         <v>248831881.4387866</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -28668,7 +29530,7 @@
         <v>248573692.8448866</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -28701,7 +29563,7 @@
         <v>248780221.6198866</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28734,7 +29596,7 @@
         <v>248673095.0250866</v>
       </c>
       <c r="H833" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -28767,7 +29629,7 @@
         <v>248564868.1959866</v>
       </c>
       <c r="H834" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -28800,7 +29662,7 @@
         <v>248659788.3589866</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -28833,7 +29695,7 @@
         <v>248561301.0107866</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28866,7 +29728,7 @@
         <v>248646194.4223866</v>
       </c>
       <c r="H837" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28899,7 +29761,7 @@
         <v>248546061.9330866</v>
       </c>
       <c r="H838" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28932,7 +29794,7 @@
         <v>248715450.8723866</v>
       </c>
       <c r="H839" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28965,7 +29827,7 @@
         <v>248887691.3255866</v>
       </c>
       <c r="H840" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28998,7 +29860,7 @@
         <v>248915302.0969866</v>
       </c>
       <c r="H841" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29031,7 +29893,7 @@
         <v>248878663.6520866</v>
       </c>
       <c r="H842" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29064,7 +29926,7 @@
         <v>248921354.2972866</v>
       </c>
       <c r="H843" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29097,7 +29959,7 @@
         <v>247658825.6403866</v>
       </c>
       <c r="H844" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29130,7 +29992,7 @@
         <v>247658825.6403866</v>
       </c>
       <c r="H845" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -29163,7 +30025,7 @@
         <v>247920533.4104866</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -29196,7 +30058,7 @@
         <v>248028424.2801866</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -29229,7 +30091,7 @@
         <v>247889028.9916866</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -29262,7 +30124,7 @@
         <v>247775000.4621866</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -29295,7 +30157,7 @@
         <v>247670377.1673866</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -29328,7 +30190,7 @@
         <v>247605406.5978866</v>
       </c>
       <c r="H851" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -29361,7 +30223,7 @@
         <v>247710883.7200866</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -29394,7 +30256,7 @@
         <v>247734044.2803866</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -29427,7 +30289,7 @@
         <v>247644740.5887866</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -29460,7 +30322,7 @@
         <v>247741749.1559866</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -29493,7 +30355,7 @@
         <v>247691977.8971866</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -29526,7 +30388,7 @@
         <v>247634410.2116866</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -29559,7 +30421,7 @@
         <v>247535274.9755866</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -29592,7 +30454,7 @@
         <v>247557511.5323866</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -29625,7 +30487,7 @@
         <v>247582004.9555093</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -29658,7 +30520,7 @@
         <v>247543617.3824093</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -29691,7 +30553,7 @@
         <v>247469632.3257093</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -29724,7 +30586,7 @@
         <v>247411975.2210093</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -29757,7 +30619,7 @@
         <v>247378678.7206093</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -29790,7 +30652,7 @@
         <v>247378678.7206093</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -29823,7 +30685,7 @@
         <v>247233066.5525093</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -29856,7 +30718,7 @@
         <v>247192151.0481093</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29889,7 +30751,7 @@
         <v>247192151.0481093</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29922,7 +30784,7 @@
         <v>247024870.0379093</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29955,7 +30817,7 @@
         <v>247024870.0379093</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29988,7 +30850,7 @@
         <v>247063374.1712093</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30021,7 +30883,7 @@
         <v>246566532.2855447</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30054,7 +30916,7 @@
         <v>246870249.3048447</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30087,7 +30949,7 @@
         <v>246526764.7748447</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30120,7 +30982,7 @@
         <v>246705450.1375447</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30153,7 +31015,7 @@
         <v>246785073.8324447</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -30186,7 +31048,7 @@
         <v>246760582.5873447</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -30219,7 +31081,7 @@
         <v>246760582.5873447</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -30252,7 +31114,7 @@
         <v>246571678.3610447</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -30285,7 +31147,7 @@
         <v>246571678.3610447</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -30318,7 +31180,7 @@
         <v>246593879.0058447</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30351,7 +31213,7 @@
         <v>246541424.0037113</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30384,7 +31246,7 @@
         <v>246652970.0188778</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -30417,7 +31279,7 @@
         <v>246686491.2335778</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -30450,7 +31312,7 @@
         <v>246737489.4247778</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -30483,7 +31345,7 @@
         <v>246782066.5536778</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -30516,7 +31378,7 @@
         <v>246840874.3675778</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -30549,7 +31411,7 @@
         <v>246743849.5119778</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -30582,7 +31444,7 @@
         <v>246840574.7097778</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -30615,7 +31477,7 @@
         <v>246790118.9550079</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -30648,7 +31510,7 @@
         <v>246773388.1395079</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -30681,7 +31543,7 @@
         <v>246887757.1260079</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -30714,7 +31576,7 @@
         <v>246996298.4034079</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -30747,7 +31609,7 @@
         <v>246996298.4034079</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -30780,7 +31642,7 @@
         <v>247035818.0980079</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -30813,7 +31675,7 @@
         <v>246996523.5099079</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -30846,7 +31708,7 @@
         <v>246996523.5099079</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30879,7 +31741,7 @@
         <v>246996523.5099079</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30912,7 +31774,7 @@
         <v>246851876.0798079</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30945,7 +31807,7 @@
         <v>246797367.2155079</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30978,7 +31840,7 @@
         <v>246818964.6349079</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -31011,7 +31873,7 @@
         <v>246818964.6349079</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31044,7 +31906,7 @@
         <v>246764784.5373079</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31077,7 +31939,7 @@
         <v>246826536.7066079</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -31110,7 +31972,7 @@
         <v>246782857.6681079</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -31143,7 +32005,7 @@
         <v>246604866.7603744</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -31176,7 +32038,7 @@
         <v>246707445.5037744</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -31209,7 +32071,7 @@
         <v>246608852.0618744</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -31242,7 +32104,7 @@
         <v>246629952.7105744</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -31275,7 +32137,7 @@
         <v>246629952.7105744</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -31308,7 +32170,7 @@
         <v>246629952.7105744</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -31341,7 +32203,7 @@
         <v>246629952.7105744</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -31374,7 +32236,7 @@
         <v>246629952.7105744</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -31407,7 +32269,7 @@
         <v>246705584.9810416</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -31440,7 +32302,7 @@
         <v>246856488.2329415</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -31473,7 +32335,7 @@
         <v>246856488.2329415</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -31506,7 +32368,7 @@
         <v>246887703.5792415</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -31539,7 +32401,7 @@
         <v>246838402.5533415</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -31572,7 +32434,7 @@
         <v>246949092.6955415</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -31605,7 +32467,7 @@
         <v>247174536.5104337</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -31638,7 +32500,7 @@
         <v>247147145.4325337</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -31671,7 +32533,7 @@
         <v>246994878.0498337</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -31704,7 +32566,7 @@
         <v>246958089.2073337</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -31737,7 +32599,7 @@
         <v>246931886.2814337</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -31770,7 +32632,7 @@
         <v>246903944.9123337</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -31803,7 +32665,7 @@
         <v>246903944.9123337</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -31836,7 +32698,7 @@
         <v>246904185.6703213</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31869,7 +32731,7 @@
         <v>246904185.6703213</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31902,7 +32764,7 @@
         <v>246904185.6703213</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31935,7 +32797,7 @@
         <v>247023736.6827337</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31968,7 +32830,7 @@
         <v>246890185.1874462</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32001,7 +32863,7 @@
         <v>246890185.1874462</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32034,7 +32896,7 @@
         <v>246962295.1690462</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32067,7 +32929,7 @@
         <v>246922104.0928462</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -32100,7 +32962,7 @@
         <v>246922104.0928462</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32133,7 +32995,7 @@
         <v>246995509.7893462</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32166,7 +33028,7 @@
         <v>246995509.7893462</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -32199,7 +33061,7 @@
         <v>246717445.9067461</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -32232,7 +33094,7 @@
         <v>246764560.3174461</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -32265,7 +33127,7 @@
         <v>246764560.3174461</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -32298,7 +33160,7 @@
         <v>246634725.3524461</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -32331,7 +33193,7 @@
         <v>246444788.4893461</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -32364,7 +33226,7 @@
         <v>246592099.0854461</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -32397,7 +33259,7 @@
         <v>246539194.1563461</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -32430,7 +33292,7 @@
         <v>246371655.2655461</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -32463,7 +33325,7 @@
         <v>246439993.2261461</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -32496,7 +33358,7 @@
         <v>246460647.6445461</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -32529,7 +33391,7 @@
         <v>246475164.1536461</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -32562,7 +33424,7 @@
         <v>246416210.0641461</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -32595,7 +33457,7 @@
         <v>246313257.8025461</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -32628,7 +33490,7 @@
         <v>246391679.6013461</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -32661,7 +33523,7 @@
         <v>246306170.2804461</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -32694,7 +33556,7 @@
         <v>246362273.0186461</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -32727,7 +33589,7 @@
         <v>246332992.0915461</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -32760,7 +33622,7 @@
         <v>246506376.4529461</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -32793,7 +33655,7 @@
         <v>246577902.2268007</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -32826,7 +33688,7 @@
         <v>246577902.2268007</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -32859,7 +33721,7 @@
         <v>246577902.2268007</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32892,7 +33754,7 @@
         <v>246554495.3031007</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32925,7 +33787,7 @@
         <v>246745604.1692007</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32958,7 +33820,7 @@
         <v>246920822.7560007</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32991,7 +33853,7 @@
         <v>246892796.5663007</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33024,7 +33886,7 @@
         <v>246912420.7031007</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33057,7 +33919,7 @@
         <v>246912420.7031007</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33090,7 +33952,7 @@
         <v>246912420.7031007</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -33123,7 +33985,7 @@
         <v>246912420.7031007</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -33156,7 +34018,7 @@
         <v>246912420.7031007</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -33189,7 +34051,7 @@
         <v>246912420.7031007</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -33222,7 +34084,7 @@
         <v>246912420.7031007</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -33255,7 +34117,7 @@
         <v>247007052.9203461</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -33288,7 +34150,7 @@
         <v>246992144.9564461</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -33321,7 +34183,7 @@
         <v>247016741.9267461</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -33354,7 +34216,7 @@
         <v>246999820.8062461</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -33387,7 +34249,7 @@
         <v>246976024.3631461</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -33420,7 +34282,7 @@
         <v>246976024.3631461</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -33453,7 +34315,7 @@
         <v>246750182.8863916</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -33486,7 +34348,7 @@
         <v>246750182.8863916</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -33519,7 +34381,7 @@
         <v>246750182.8863916</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -33552,7 +34414,7 @@
         <v>246686398.1728916</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -33585,7 +34447,7 @@
         <v>246686398.1728916</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -33618,7 +34480,7 @@
         <v>246731940.7054916</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -33651,7 +34513,7 @@
         <v>246709825.7068916</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -33684,7 +34546,7 @@
         <v>246853605.5426916</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -33717,7 +34579,7 @@
         <v>246853605.5426916</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -33750,7 +34612,7 @@
         <v>247060131.5331916</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -33783,7 +34645,7 @@
         <v>246997723.0289916</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -33816,7 +34678,7 @@
         <v>246973715.7818916</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -33849,7 +34711,7 @@
         <v>247001207.2387916</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33882,7 +34744,7 @@
         <v>247048697.6625915</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33915,7 +34777,7 @@
         <v>246955978.8113915</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33948,7 +34810,7 @@
         <v>246864056.9766915</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33981,7 +34843,7 @@
         <v>246881413.8693915</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34014,7 +34876,7 @@
         <v>246811392.0273915</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34047,7 +34909,7 @@
         <v>246811392.0273915</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34080,7 +34942,7 @@
         <v>246787012.2794915</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34113,7 +34975,7 @@
         <v>246802249.2307915</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -34146,7 +35008,7 @@
         <v>246958597.9646915</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -34179,7 +35041,7 @@
         <v>246940324.0433915</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -34212,7 +35074,7 @@
         <v>247006507.7021915</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -34245,7 +35107,7 @@
         <v>247068068.6653915</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -34278,7 +35140,7 @@
         <v>247026437.8084915</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -34311,7 +35173,7 @@
         <v>247040684.2760915</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -34344,7 +35206,7 @@
         <v>247024011.7568915</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -34377,7 +35239,7 @@
         <v>247038648.4962915</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -34410,7 +35272,7 @@
         <v>247072085.5247915</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -34443,7 +35305,7 @@
         <v>247072085.5247915</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -34476,7 +35338,7 @@
         <v>247005699.3321915</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -34509,7 +35371,7 @@
         <v>247005699.3321915</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -34542,7 +35404,7 @@
         <v>247026932.9978693</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -34575,7 +35437,7 @@
         <v>247242417.957902</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -34608,7 +35470,7 @@
         <v>247218394.729902</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -34641,7 +35503,7 @@
         <v>247205258.023202</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -34674,7 +35536,7 @@
         <v>247194310.912502</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -34707,7 +35569,7 @@
         <v>247154844.291202</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -34740,7 +35602,7 @@
         <v>247190794.485502</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -34773,7 +35635,7 @@
         <v>247190794.485502</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -34806,7 +35668,7 @@
         <v>247106030.787702</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -34839,7 +35701,7 @@
         <v>247105824.056502</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34872,7 +35734,7 @@
         <v>247105824.056502</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -34905,7 +35767,7 @@
         <v>247105824.056502</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34938,7 +35800,7 @@
         <v>247105824.056502</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34971,7 +35833,7 @@
         <v>247065000.147902</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -35004,7 +35866,7 @@
         <v>246979352.1703019</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -35037,7 +35899,7 @@
         <v>247014193.3166019</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -35070,7 +35932,7 @@
         <v>247014193.3166019</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -35103,7 +35965,7 @@
         <v>247014193.3166019</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -35136,7 +35998,7 @@
         <v>246859377.9862019</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -35169,7 +36031,7 @@
         <v>246934117.7171019</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -35202,7 +36064,7 @@
         <v>246959481.0843019</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -35235,7 +36097,7 @@
         <v>246959481.0843019</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -35268,7 +36130,7 @@
         <v>246921255.5801019</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -35301,7 +36163,7 @@
         <v>246921255.5801019</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -35334,7 +36196,7 @@
         <v>246921255.5801019</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -35367,7 +36229,7 @@
         <v>246921255.5801019</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -35400,7 +36262,7 @@
         <v>247006788.7356019</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -35433,7 +36295,7 @@
         <v>247006788.7356019</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -35466,7 +36328,7 @@
         <v>246867162.2264019</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -35499,7 +36361,7 @@
         <v>247141626.9796019</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -35532,7 +36394,7 @@
         <v>247141626.9796019</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -35565,7 +36427,7 @@
         <v>247260864.5109681</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -35598,7 +36460,7 @@
         <v>247313521.3239681</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -35631,7 +36493,7 @@
         <v>247435772.6700681</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -35664,7 +36526,7 @@
         <v>247435772.6700681</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -35697,7 +36559,7 @@
         <v>247435772.6700681</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -35730,7 +36592,7 @@
         <v>247435772.6700681</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -35763,7 +36625,7 @@
         <v>247435772.6700681</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -35796,7 +36658,7 @@
         <v>247404710.8045681</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -35829,7 +36691,7 @@
         <v>247679183.2950094</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -35862,7 +36724,7 @@
         <v>247753835.8173858</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -35895,7 +36757,7 @@
         <v>247890454.3775858</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -35928,7 +36790,7 @@
         <v>247890454.3775858</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -35961,7 +36823,7 @@
         <v>247956979.0991858</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -35994,7 +36856,7 @@
         <v>247956979.0991858</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -36027,7 +36889,7 @@
         <v>247956979.0991858</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -36060,7 +36922,7 @@
         <v>247898615.7846858</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -36093,7 +36955,7 @@
         <v>248178515.5112858</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -36126,7 +36988,7 @@
         <v>248243656.9820858</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -36159,7 +37021,7 @@
         <v>248243656.9820858</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -36192,7 +37054,7 @@
         <v>248243656.9820858</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -36225,7 +37087,7 @@
         <v>248112887.0863858</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -36258,7 +37120,7 @@
         <v>248209018.9260678</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -36291,7 +37153,7 @@
         <v>248279469.5750282</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -36324,7 +37186,7 @@
         <v>248279469.5750282</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -36357,7 +37219,7 @@
         <v>248469216.0326419</v>
       </c>
       <c r="H1064" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -36390,7 +37252,7 @@
         <v>248496549.909842</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -36423,7 +37285,7 @@
         <v>248428592.663442</v>
       </c>
       <c r="H1066" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -36456,7 +37318,7 @@
         <v>248428592.663442</v>
       </c>
       <c r="H1067" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -36489,7 +37351,7 @@
         <v>248497989.422942</v>
       </c>
       <c r="H1068" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -36522,7 +37384,7 @@
         <v>248826799.917442</v>
       </c>
       <c r="H1069" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -36555,7 +37417,7 @@
         <v>248790316.1825755</v>
       </c>
       <c r="H1070" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -36588,7 +37450,7 @@
         <v>248806591.4828732</v>
       </c>
       <c r="H1071" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -36621,7 +37483,7 @@
         <v>248770562.7967732</v>
       </c>
       <c r="H1072" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -36654,7 +37516,7 @@
         <v>248792102.6325732</v>
       </c>
       <c r="H1073" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -36687,7 +37549,7 @@
         <v>248855118.1447642</v>
       </c>
       <c r="H1074" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -36720,7 +37582,7 @@
         <v>248790435.4880642</v>
       </c>
       <c r="H1075" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -36753,7 +37615,7 @@
         <v>248964019.6241642</v>
       </c>
       <c r="H1076" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -36786,7 +37648,7 @@
         <v>248951019.6241642</v>
       </c>
       <c r="H1077" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -36819,7 +37681,7 @@
         <v>248951019.6241642</v>
       </c>
       <c r="H1078" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -36852,7 +37714,7 @@
         <v>248951019.6241642</v>
       </c>
       <c r="H1079" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -36885,7 +37747,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1080" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -36918,7 +37780,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1081" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -36951,7 +37813,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1082" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -36984,7 +37846,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1083" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -37017,7 +37879,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1084" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -37050,7 +37912,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1085" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -37083,7 +37945,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1086" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -37116,7 +37978,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1087" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -37149,7 +38011,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1088" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -37182,7 +38044,7 @@
         <v>248979587.0945198</v>
       </c>
       <c r="H1089" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -37215,7 +38077,7 @@
         <v>248979587.0945198</v>
       </c>
       <c r="H1090" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -37248,7 +38110,7 @@
         <v>248979587.0945198</v>
       </c>
       <c r="H1091" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -37281,7 +38143,7 @@
         <v>248979587.0945198</v>
       </c>
       <c r="H1092" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -37314,7 +38176,7 @@
         <v>249016471.6913832</v>
       </c>
       <c r="H1093" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -37347,7 +38209,7 @@
         <v>249016471.6913832</v>
       </c>
       <c r="H1094" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -37380,7 +38242,7 @@
         <v>249016471.6913832</v>
       </c>
       <c r="H1095" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -37413,7 +38275,7 @@
         <v>249016471.6913832</v>
       </c>
       <c r="H1096" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -37446,7 +38308,7 @@
         <v>249016471.6913832</v>
       </c>
       <c r="H1097" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -37479,7 +38341,7 @@
         <v>249012471.6913832</v>
       </c>
       <c r="H1098" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -37512,7 +38374,7 @@
         <v>248354244.9215832</v>
       </c>
       <c r="H1099" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -37545,7 +38407,7 @@
         <v>248354244.9215832</v>
       </c>
       <c r="H1100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -37578,7 +38440,7 @@
         <v>248354244.9215832</v>
       </c>
       <c r="H1101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -37611,7 +38473,7 @@
         <v>248354244.9215832</v>
       </c>
       <c r="H1102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -37644,7 +38506,7 @@
         <v>248354244.9215832</v>
       </c>
       <c r="H1103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -37677,7 +38539,7 @@
         <v>248344563.5001832</v>
       </c>
       <c r="H1104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -37710,7 +38572,7 @@
         <v>248344466.7560832</v>
       </c>
       <c r="H1105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -37743,7 +38605,7 @@
         <v>248095626.2925832</v>
       </c>
       <c r="H1106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -37776,7 +38638,7 @@
         <v>248095626.2925832</v>
       </c>
       <c r="H1107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -37809,7 +38671,7 @@
         <v>248095626.2925832</v>
       </c>
       <c r="H1108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -37842,7 +38704,7 @@
         <v>248251782.3177832</v>
       </c>
       <c r="H1109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -37875,7 +38737,7 @@
         <v>247823111.5496832</v>
       </c>
       <c r="H1110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -37908,7 +38770,7 @@
         <v>247757083.2343833</v>
       </c>
       <c r="H1111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -37941,7 +38803,7 @@
         <v>247815740.2154832</v>
       </c>
       <c r="H1112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -37974,7 +38836,7 @@
         <v>247780348.3527833</v>
       </c>
       <c r="H1113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -38007,7 +38869,7 @@
         <v>247750046.4635833</v>
       </c>
       <c r="H1114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -38040,7 +38902,7 @@
         <v>247802541.4350833</v>
       </c>
       <c r="H1115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -38073,7 +38935,7 @@
         <v>247501337.6991833</v>
       </c>
       <c r="H1116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -38106,7 +38968,7 @@
         <v>247470050.5351833</v>
       </c>
       <c r="H1117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -38139,7 +39001,7 @@
         <v>247533718.4042833</v>
       </c>
       <c r="H1118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -38172,7 +39034,7 @@
         <v>247547742.5897833</v>
       </c>
       <c r="H1119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -38205,7 +39067,7 @@
         <v>247525101.0008833</v>
       </c>
       <c r="H1120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -38238,7 +39100,7 @@
         <v>247602141.4858833</v>
       </c>
       <c r="H1121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -38271,7 +39133,7 @@
         <v>247815778.0681833</v>
       </c>
       <c r="H1122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -38304,7 +39166,7 @@
         <v>247765710.6910833</v>
       </c>
       <c r="H1123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -38337,7 +39199,7 @@
         <v>247776294.3320833</v>
       </c>
       <c r="H1124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -38370,7 +39232,7 @@
         <v>247764682.7294833</v>
       </c>
       <c r="H1125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -38403,7 +39265,7 @@
         <v>247736559.7000833</v>
       </c>
       <c r="H1126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -38436,7 +39298,7 @@
         <v>247791670.5791833</v>
       </c>
       <c r="H1127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -38469,7 +39331,7 @@
         <v>247840702.2261833</v>
       </c>
       <c r="H1128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -38502,7 +39364,7 @@
         <v>247856250.3830833</v>
       </c>
       <c r="H1129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -38535,7 +39397,7 @@
         <v>247841219.1184833</v>
       </c>
       <c r="H1130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -38568,7 +39430,7 @@
         <v>247841219.1184833</v>
       </c>
       <c r="H1131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -38601,7 +39463,7 @@
         <v>247806447.2121833</v>
       </c>
       <c r="H1132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -38634,7 +39496,7 @@
         <v>247806447.2121833</v>
       </c>
       <c r="H1133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -38667,7 +39529,7 @@
         <v>247806447.2121833</v>
       </c>
       <c r="H1134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -38700,7 +39562,7 @@
         <v>247796146.7925833</v>
       </c>
       <c r="H1135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -38733,7 +39595,7 @@
         <v>247950824.5869833</v>
       </c>
       <c r="H1136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -38766,7 +39628,7 @@
         <v>247928703.4227833</v>
       </c>
       <c r="H1137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -38799,7 +39661,7 @@
         <v>248082822.9825833</v>
       </c>
       <c r="H1138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -38832,7 +39694,7 @@
         <v>248177243.4851833</v>
       </c>
       <c r="H1139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -38865,7 +39727,7 @@
         <v>248131253.1586833</v>
       </c>
       <c r="H1140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -38898,7 +39760,7 @@
         <v>247998533.2792833</v>
       </c>
       <c r="H1141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -38931,7 +39793,7 @@
         <v>247984314.5350833</v>
       </c>
       <c r="H1142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -38964,7 +39826,7 @@
         <v>248052146.4747005</v>
       </c>
       <c r="H1143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -38997,7 +39859,7 @@
         <v>248150708.6465005</v>
       </c>
       <c r="H1144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -39030,7 +39892,7 @@
         <v>248213327.4972833</v>
       </c>
       <c r="H1145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -39063,7 +39925,7 @@
         <v>248186725.2522832</v>
       </c>
       <c r="H1146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -39096,7 +39958,7 @@
         <v>248186725.2522832</v>
       </c>
       <c r="H1147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -39129,7 +39991,7 @@
         <v>248212396.5555832</v>
       </c>
       <c r="H1148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -39162,7 +40024,7 @@
         <v>248153315.6395832</v>
       </c>
       <c r="H1149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -39195,7 +40057,7 @@
         <v>248178993.9621832</v>
       </c>
       <c r="H1150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -39228,7 +40090,7 @@
         <v>248150841.7781833</v>
       </c>
       <c r="H1151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -39261,7 +40123,7 @@
         <v>248126621.2184832</v>
       </c>
       <c r="H1152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -39294,7 +40156,7 @@
         <v>248126621.2184832</v>
       </c>
       <c r="H1153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -39327,7 +40189,7 @@
         <v>248195539.206078</v>
       </c>
       <c r="H1154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -39360,7 +40222,7 @@
         <v>248195539.206078</v>
       </c>
       <c r="H1155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -39393,7 +40255,7 @@
         <v>247767670.987078</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -39426,7 +40288,7 @@
         <v>247923895.5639062</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -39459,7 +40321,7 @@
         <v>248009519.3003287</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -39492,7 +40354,7 @@
         <v>247979036.4996287</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -39525,7 +40387,7 @@
         <v>248013203.6415287</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -39558,7 +40420,7 @@
         <v>247997897.2781287</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -39591,7 +40453,7 @@
         <v>248017725.1542287</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -39624,7 +40486,7 @@
         <v>248017725.1542287</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -39657,7 +40519,7 @@
         <v>248029962.4645287</v>
       </c>
       <c r="H1164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -39690,7 +40552,7 @@
         <v>248060066.5400287</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -39723,7 +40585,7 @@
         <v>248060066.5400287</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -39756,7 +40618,7 @@
         <v>248012568.9203287</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -39789,7 +40651,7 @@
         <v>248040382.1963287</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -39822,7 +40684,7 @@
         <v>247995519.0329287</v>
       </c>
       <c r="H1169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
@@ -39855,7 +40717,7 @@
         <v>248067621.7798287</v>
       </c>
       <c r="H1170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
@@ -39888,7 +40750,7 @@
         <v>248067621.7798287</v>
       </c>
       <c r="H1171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
@@ -39921,7 +40783,7 @@
         <v>248230829.1194287</v>
       </c>
       <c r="H1172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
@@ -39954,7 +40816,7 @@
         <v>248030924.9953287</v>
       </c>
       <c r="H1173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -39987,7 +40849,7 @@
         <v>248125947.9915287</v>
       </c>
       <c r="H1174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -40020,7 +40882,7 @@
         <v>248125947.9915287</v>
       </c>
       <c r="H1175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -40053,7 +40915,7 @@
         <v>248125947.9915287</v>
       </c>
       <c r="H1176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
@@ -40086,7 +40948,7 @@
         <v>247729078.5012287</v>
       </c>
       <c r="H1177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -40119,7 +40981,7 @@
         <v>247593856.5284287</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -40152,7 +41014,7 @@
         <v>247627714.0466287</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
@@ -40185,7 +41047,7 @@
         <v>247672840.4173287</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
@@ -40218,7 +41080,7 @@
         <v>247814219.6251287</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
@@ -40251,7 +41113,7 @@
         <v>247704550.1754287</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
@@ -40284,7 +41146,7 @@
         <v>247759773.1922287</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
@@ -40317,7 +41179,7 @@
         <v>247696730.0280287</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
@@ -40350,7 +41212,7 @@
         <v>247615773.9915287</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
@@ -40383,7 +41245,7 @@
         <v>247644879.2034287</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
@@ -40416,7 +41278,7 @@
         <v>247644879.2034287</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
@@ -40449,7 +41311,7 @@
         <v>247576960.2873287</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
@@ -40482,7 +41344,7 @@
         <v>247670752.6067287</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
@@ -40515,7 +41377,7 @@
         <v>247602690.2015287</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
@@ -40548,7 +41410,7 @@
         <v>247641350.8684287</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
@@ -40581,7 +41443,7 @@
         <v>247641350.8684287</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
@@ -40614,7 +41476,7 @@
         <v>247515963.5391287</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
@@ -40647,7 +41509,7 @@
         <v>247589193.5589287</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
@@ -40680,7 +41542,7 @@
         <v>247548091.9676287</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
@@ -40713,7 +41575,7 @@
         <v>247408920.3644287</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
@@ -40746,7 +41608,7 @@
         <v>247474559.6209287</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
@@ -40779,7 +41641,7 @@
         <v>247474559.6209287</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
@@ -40812,7 +41674,7 @@
         <v>247360199.8108287</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
@@ -40845,7 +41707,7 @@
         <v>247197265.2118287</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
@@ -40878,7 +41740,7 @@
         <v>247410264.9154287</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
@@ -40911,7 +41773,7 @@
         <v>247554372.7420287</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
@@ -40944,7 +41806,7 @@
         <v>247722942.0729287</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
@@ -40977,7 +41839,7 @@
         <v>248210405.5298287</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
@@ -41010,7 +41872,7 @@
         <v>248970341.0751287</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
@@ -41043,7 +41905,7 @@
         <v>248970341.0751287</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
@@ -41076,7 +41938,7 @@
         <v>248749006.0876287</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
@@ -41109,7 +41971,7 @@
         <v>248670997.5463287</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
@@ -41142,7 +42004,7 @@
         <v>249044207.3541287</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
@@ -41175,7 +42037,7 @@
         <v>249044207.3541287</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
@@ -41208,7 +42070,7 @@
         <v>248375049.0883287</v>
       </c>
       <c r="H1211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
@@ -41241,7 +42103,7 @@
         <v>248648518.1289843</v>
       </c>
       <c r="H1212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
@@ -41274,7 +42136,7 @@
         <v>248689986.9794843</v>
       </c>
       <c r="H1213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
@@ -41307,7 +42169,7 @@
         <v>248732909.1839843</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
@@ -41340,7 +42202,7 @@
         <v>248564402.4562843</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
@@ -41373,7 +42235,7 @@
         <v>248980202.0253843</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
@@ -41406,7 +42268,7 @@
         <v>248980202.0253843</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
@@ -41439,7 +42301,7 @@
         <v>248965919.8834843</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
@@ -41472,7 +42334,7 @@
         <v>249025344.8057843</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
@@ -41505,7 +42367,7 @@
         <v>248967054.7204843</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
@@ -41538,7 +42400,7 @@
         <v>249033920.6449843</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
@@ -41571,7 +42433,7 @@
         <v>249081020.3951843</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
@@ -41604,7 +42466,7 @@
         <v>249022238.3406843</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
@@ -41637,7 +42499,7 @@
         <v>249104870.6260843</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
@@ -41670,7 +42532,7 @@
         <v>249221501.2903843</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
@@ -41703,7 +42565,7 @@
         <v>249245040.5981843</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
@@ -41736,7 +42598,7 @@
         <v>249239750.7414843</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
@@ -41769,7 +42631,7 @@
         <v>249314198.8311843</v>
       </c>
       <c r="H1228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
@@ -41802,7 +42664,7 @@
         <v>249385802.2389843</v>
       </c>
       <c r="H1229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
@@ -41835,7 +42697,7 @@
         <v>249283251.4628515</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
@@ -41868,7 +42730,7 @@
         <v>249315547.3432515</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
@@ -41901,7 +42763,7 @@
         <v>249346788.0176187</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
@@ -41934,7 +42796,7 @@
         <v>249346788.0176187</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
@@ -41967,7 +42829,7 @@
         <v>249346788.0176187</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
@@ -42000,7 +42862,7 @@
         <v>249345103.0952187</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
@@ -42033,7 +42895,7 @@
         <v>249396108.6092871</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
@@ -42066,7 +42928,7 @@
         <v>249417286.0163187</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
@@ -42099,7 +42961,7 @@
         <v>249519280.42668</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
@@ -42132,7 +42994,7 @@
         <v>249317587.3498116</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
@@ -42165,7 +43027,7 @@
         <v>249105587.1295117</v>
       </c>
       <c r="H1240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
@@ -42198,7 +43060,7 @@
         <v>249105587.1295117</v>
       </c>
       <c r="H1241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
@@ -42231,7 +43093,7 @@
         <v>248861949.4929789</v>
       </c>
       <c r="H1242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
@@ -42264,7 +43126,7 @@
         <v>249328450.9886789</v>
       </c>
       <c r="H1243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
@@ -42297,7 +43159,7 @@
         <v>249514043.3525789</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
@@ -42330,7 +43192,7 @@
         <v>249430997.3608789</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
@@ -42363,7 +43225,7 @@
         <v>249562332.6566789</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
@@ -42396,7 +43258,7 @@
         <v>249475565.2023789</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
@@ -42429,7 +43291,7 @@
         <v>249695605.4846789</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
@@ -42462,7 +43324,7 @@
         <v>249567658.4828789</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
@@ -42495,7 +43357,7 @@
         <v>249752085.3856789</v>
       </c>
       <c r="H1250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
@@ -42528,7 +43390,7 @@
         <v>249875529.4948789</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
@@ -42561,7 +43423,7 @@
         <v>249761545.6328789</v>
       </c>
       <c r="H1252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
@@ -42594,7 +43456,7 @@
         <v>249620857.4100789</v>
       </c>
       <c r="H1253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
@@ -42627,7 +43489,7 @@
         <v>249717854.7353789</v>
       </c>
       <c r="H1254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
@@ -42660,7 +43522,7 @@
         <v>249616525.6994789</v>
       </c>
       <c r="H1255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
@@ -42693,7 +43555,7 @@
         <v>249399678.9176789</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
@@ -42726,7 +43588,7 @@
         <v>249578435.4679789</v>
       </c>
       <c r="H1257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
@@ -42759,7 +43621,7 @@
         <v>249537440.5375789</v>
       </c>
       <c r="H1258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
@@ -42792,7 +43654,7 @@
         <v>249680132.4318789</v>
       </c>
       <c r="H1259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
@@ -42825,7 +43687,7 @@
         <v>249564552.4866789</v>
       </c>
       <c r="H1260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
@@ -42858,7 +43720,7 @@
         <v>249766962.5338789</v>
       </c>
       <c r="H1261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
@@ -42891,7 +43753,7 @@
         <v>249644602.5039789</v>
       </c>
       <c r="H1262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
@@ -42924,7 +43786,7 @@
         <v>249518232.1930789</v>
       </c>
       <c r="H1263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
@@ -42957,7 +43819,7 @@
         <v>249443230.4775789</v>
       </c>
       <c r="H1264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
@@ -42990,7 +43852,7 @@
         <v>249465406.6668789</v>
       </c>
       <c r="H1265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
@@ -43023,7 +43885,7 @@
         <v>249384023.1371789</v>
       </c>
       <c r="H1266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
@@ -43056,7 +43918,7 @@
         <v>249606580.3450789</v>
       </c>
       <c r="H1267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
@@ -43089,7 +43951,7 @@
         <v>249606580.3450789</v>
       </c>
       <c r="H1268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
@@ -43122,7 +43984,7 @@
         <v>249529889.2512789</v>
       </c>
       <c r="H1269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
@@ -43155,7 +44017,7 @@
         <v>249588645.4127789</v>
       </c>
       <c r="H1270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
@@ -43188,7 +44050,7 @@
         <v>249588645.4127789</v>
       </c>
       <c r="H1271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
@@ -43221,7 +44083,7 @@
         <v>249541305.6199789</v>
       </c>
       <c r="H1272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
@@ -43254,7 +44116,7 @@
         <v>249510116.5583789</v>
       </c>
       <c r="H1273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
@@ -43287,7 +44149,7 @@
         <v>249510116.5583789</v>
       </c>
       <c r="H1274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
@@ -43320,7 +44182,7 @@
         <v>249570243.4724789</v>
       </c>
       <c r="H1275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
@@ -43353,7 +44215,7 @@
         <v>249570243.4724789</v>
       </c>
       <c r="H1276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
@@ -43386,7 +44248,7 @@
         <v>249454985.5893789</v>
       </c>
       <c r="H1277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
@@ -43419,7 +44281,7 @@
         <v>249363813.2064789</v>
       </c>
       <c r="H1278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
@@ -43452,7 +44314,7 @@
         <v>249364813.2064789</v>
       </c>
       <c r="H1279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
@@ -43485,7 +44347,7 @@
         <v>249364813.2064789</v>
       </c>
       <c r="H1280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
@@ -43518,7 +44380,7 @@
         <v>249158513.4098788</v>
       </c>
       <c r="H1281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
@@ -43551,7 +44413,7 @@
         <v>248845448.1337788</v>
       </c>
       <c r="H1282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
@@ -43584,7 +44446,7 @@
         <v>249057039.8620788</v>
       </c>
       <c r="H1283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
@@ -43617,7 +44479,7 @@
         <v>249057039.8620788</v>
       </c>
       <c r="H1284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
@@ -43650,7 +44512,7 @@
         <v>249142501.5038788</v>
       </c>
       <c r="H1285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
@@ -43683,7 +44545,7 @@
         <v>249352303.6914788</v>
       </c>
       <c r="H1286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
@@ -43716,7 +44578,7 @@
         <v>249429885.1304788</v>
       </c>
       <c r="H1287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
@@ -43749,7 +44611,7 @@
         <v>249692228.2803788</v>
       </c>
       <c r="H1288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
@@ -43782,7 +44644,7 @@
         <v>249692228.2803788</v>
       </c>
       <c r="H1289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
@@ -43815,7 +44677,7 @@
         <v>249692228.2803788</v>
       </c>
       <c r="H1290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
@@ -43848,7 +44710,7 @@
         <v>249692228.2803788</v>
       </c>
       <c r="H1291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
@@ -43881,7 +44743,7 @@
         <v>249570999.6472788</v>
       </c>
       <c r="H1292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
@@ -43914,7 +44776,7 @@
         <v>249570999.6472788</v>
       </c>
       <c r="H1293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
@@ -43947,7 +44809,7 @@
         <v>249348134.6113788</v>
       </c>
       <c r="H1294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
@@ -43980,7 +44842,7 @@
         <v>249348134.6113788</v>
       </c>
       <c r="H1295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
@@ -44013,7 +44875,7 @@
         <v>249325131.9326788</v>
       </c>
       <c r="H1296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
@@ -44046,7 +44908,7 @@
         <v>249448524.1208788</v>
       </c>
       <c r="H1297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
@@ -44079,7 +44941,7 @@
         <v>249448524.1208788</v>
       </c>
       <c r="H1298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
@@ -44112,7 +44974,7 @@
         <v>249163277.3920788</v>
       </c>
       <c r="H1299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
@@ -44145,7 +45007,7 @@
         <v>249163277.3920788</v>
       </c>
       <c r="H1300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
@@ -44178,7 +45040,7 @@
         <v>249819269.9213788</v>
       </c>
       <c r="H1301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
@@ -44211,7 +45073,7 @@
         <v>250335761.3926788</v>
       </c>
       <c r="H1302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
@@ -44244,7 +45106,7 @@
         <v>250036072.7199788</v>
       </c>
       <c r="H1303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
@@ -44277,7 +45139,7 @@
         <v>250036072.7199788</v>
       </c>
       <c r="H1304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
@@ -44310,7 +45172,7 @@
         <v>250036072.7199788</v>
       </c>
       <c r="H1305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
@@ -44343,7 +45205,7 @@
         <v>250194636.8647788</v>
       </c>
       <c r="H1306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
@@ -44376,7 +45238,7 @@
         <v>249857641.1643789</v>
       </c>
       <c r="H1307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
@@ -44409,7 +45271,7 @@
         <v>249857641.1643789</v>
       </c>
       <c r="H1308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
@@ -44442,7 +45304,7 @@
         <v>250037929.7197789</v>
       </c>
       <c r="H1309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
@@ -44475,7 +45337,7 @@
         <v>250254130.3766904</v>
       </c>
       <c r="H1310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
@@ -44508,7 +45370,7 @@
         <v>249962246.0466903</v>
       </c>
       <c r="H1311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
@@ -44541,7 +45403,7 @@
         <v>248836569.7141903</v>
       </c>
       <c r="H1312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
@@ -44574,7 +45436,7 @@
         <v>249146589.3820903</v>
       </c>
       <c r="H1313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
@@ -44585,6 +45447,6 @@
       <c r="M1313" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest SOC.xlsx
+++ b/BackTest/2020-01-15 BackTest SOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -6226,7 +6226,7 @@
         <v>3281428.234997069</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>3246728.326297069</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>3256317.819497069</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>3266141.750397069</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -9955,91 +9955,83 @@
         <v>2165885.347541444</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="C291" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="D291" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="E291" t="n">
         <v>14.18</v>
       </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
+      <c r="F291" t="n">
+        <v>77620.111</v>
+      </c>
+      <c r="G291" t="n">
+        <v>2088265.236541444</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="C292" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="D292" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="E292" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="F292" t="n">
+        <v>94730.93120000001</v>
+      </c>
+      <c r="G292" t="n">
+        <v>2182996.167741444</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>14.22</v>
-      </c>
-      <c r="C291" t="n">
-        <v>14.24</v>
-      </c>
-      <c r="D291" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="E291" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="F291" t="n">
-        <v>77620.111</v>
-      </c>
-      <c r="G291" t="n">
-        <v>2088265.236541444</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>14.22</v>
-      </c>
-      <c r="C292" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="D292" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="E292" t="n">
-        <v>14.21</v>
-      </c>
-      <c r="F292" t="n">
-        <v>94730.93120000001</v>
-      </c>
-      <c r="G292" t="n">
-        <v>2182996.167741444</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10068,9 +10060,11 @@
         <v>2206154.446341444</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>14.33</v>
+      </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10105,9 +10099,11 @@
         <v>2177198.479941444</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>14.35</v>
+      </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -10290,9 +10286,11 @@
         <v>1648466.640141444</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>14.27</v>
+      </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -10327,9 +10325,11 @@
         <v>1662618.978241444</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>14.26</v>
+      </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -10364,9 +10364,11 @@
         <v>1642733.472141444</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>14.32</v>
+      </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -10401,9 +10403,11 @@
         <v>1642733.472141444</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>14.29</v>
+      </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -12029,18 +12033,16 @@
         <v>2588293.007824886</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
@@ -12066,15 +12068,11 @@
         <v>2588293.007824886</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12103,15 +12101,11 @@
         <v>2577285.215524886</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12140,15 +12134,11 @@
         <v>2662888.790324886</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12181,11 +12171,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12218,11 +12204,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12255,11 +12237,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12292,11 +12270,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12329,11 +12303,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12366,11 +12336,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12403,11 +12369,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12440,11 +12402,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12477,11 +12435,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12514,11 +12468,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12551,11 +12501,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12588,11 +12534,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12625,11 +12567,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12662,11 +12600,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12699,11 +12633,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12736,11 +12666,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12773,11 +12699,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12810,11 +12732,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12847,11 +12765,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12884,11 +12798,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12921,11 +12831,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12958,11 +12864,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12995,11 +12897,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13032,11 +12930,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13069,11 +12963,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13106,11 +12996,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13143,11 +13029,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13180,11 +13062,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13217,11 +13095,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13254,11 +13128,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13291,11 +13161,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13328,11 +13194,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13365,11 +13227,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13402,11 +13260,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13439,11 +13293,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13476,11 +13326,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13513,11 +13359,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13550,11 +13392,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13587,11 +13425,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13624,11 +13458,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13661,11 +13491,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13698,11 +13524,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13735,11 +13557,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13772,11 +13590,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13809,11 +13623,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13846,11 +13656,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13883,11 +13689,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13920,11 +13722,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13957,11 +13755,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13994,11 +13788,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14031,11 +13821,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14068,11 +13854,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14105,11 +13887,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14142,11 +13920,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14179,11 +13953,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14216,11 +13986,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14253,11 +14019,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14290,11 +14052,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14327,11 +14085,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14364,11 +14118,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14401,11 +14151,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14438,11 +14184,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14475,11 +14217,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14512,11 +14250,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14549,11 +14283,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14586,11 +14316,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14623,11 +14349,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14660,11 +14382,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14697,11 +14415,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14734,11 +14448,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14771,11 +14481,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14808,11 +14514,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14845,11 +14547,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14882,11 +14580,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14919,11 +14613,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14956,11 +14646,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14993,11 +14679,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15030,11 +14712,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15067,11 +14745,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15104,11 +14778,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15141,11 +14811,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15178,11 +14844,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15215,11 +14877,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15252,11 +14910,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15289,11 +14943,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15326,11 +14976,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15363,11 +15009,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15400,11 +15042,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15437,11 +15075,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15474,11 +15108,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15511,11 +15141,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15548,11 +15174,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15585,11 +15207,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15622,11 +15240,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15659,11 +15273,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15696,11 +15306,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15733,11 +15339,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15770,11 +15372,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15807,11 +15405,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15844,11 +15438,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15881,11 +15471,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15918,11 +15504,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15955,11 +15537,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15992,11 +15570,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16029,11 +15603,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16066,11 +15636,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16103,11 +15669,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16140,11 +15702,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16177,11 +15735,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16214,11 +15768,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16251,11 +15801,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16288,11 +15834,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16325,11 +15867,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16362,11 +15900,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16395,13 +15929,15 @@
         <v>5180233.896733077</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>14.35</v>
+      </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L464" t="n">
@@ -16506,9 +16042,11 @@
         <v>5162778.573533077</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>14.37</v>
+      </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -16543,9 +16081,11 @@
         <v>5109459.417033077</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>14.32</v>
+      </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -16580,9 +16120,11 @@
         <v>5272458.914833077</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>14.31</v>
+      </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -16617,9 +16159,11 @@
         <v>5298985.890633077</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>14.34</v>
+      </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -16654,9 +16198,11 @@
         <v>5287795.546233078</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>14.36</v>
+      </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16691,9 +16237,11 @@
         <v>5307603.769233078</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>14.31</v>
+      </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16728,9 +16276,11 @@
         <v>5307603.769233078</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>14.38</v>
+      </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -16765,9 +16315,11 @@
         <v>5329990.208233078</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>14.38</v>
+      </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -16802,9 +16354,11 @@
         <v>5110589.080533078</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -16839,9 +16393,11 @@
         <v>5128845.140633078</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>14.32</v>
+      </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -16876,9 +16432,11 @@
         <v>5359762.243033078</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>14.34</v>
+      </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -17135,9 +16693,11 @@
         <v>4506011.043833078</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>14.02</v>
+      </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
@@ -17283,11 +16843,9 @@
         <v>4474720.927533078</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>14.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -17877,11 +17435,9 @@
         <v>3742109.265333079</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
-      </c>
-      <c r="I504" t="n">
-        <v>14.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
@@ -17916,11 +17472,9 @@
         <v>3843028.747283221</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>14.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17955,11 +17509,9 @@
         <v>3670215.006983221</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>14.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
@@ -17994,11 +17546,9 @@
         <v>4018824.911183221</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
@@ -18033,11 +17583,9 @@
         <v>4329227.859383222</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>14.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
@@ -18072,11 +17620,9 @@
         <v>3235745.602883222</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>14.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
@@ -18111,11 +17657,9 @@
         <v>3424508.743983222</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
@@ -18150,11 +17694,9 @@
         <v>3908109.093283222</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
-      </c>
-      <c r="I511" t="n">
-        <v>14.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
@@ -18189,11 +17731,9 @@
         <v>4183388.086683222</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
-      </c>
-      <c r="I512" t="n">
-        <v>14.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
@@ -18228,11 +17768,9 @@
         <v>3709629.182783222</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>14.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
@@ -18267,11 +17805,9 @@
         <v>3709629.182783222</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>14.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
@@ -18306,11 +17842,9 @@
         <v>2704456.014183222</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>14.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
@@ -18345,11 +17879,9 @@
         <v>2809840.279383222</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -18384,11 +17916,9 @@
         <v>2790791.686183222</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>14.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -18423,11 +17953,9 @@
         <v>2790791.686183222</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -18462,11 +17990,9 @@
         <v>2764836.209883221</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -18501,11 +18027,9 @@
         <v>2764836.209883221</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>13.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -18540,11 +18064,9 @@
         <v>2775191.851183221</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>13.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -18579,11 +18101,9 @@
         <v>2919184.671283221</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>13.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -18618,11 +18138,9 @@
         <v>6181179.763983222</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -18657,11 +18175,9 @@
         <v>5482566.199283222</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>14.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
@@ -18696,11 +18212,9 @@
         <v>6175805.683283222</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>14.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -18735,11 +18249,9 @@
         <v>8119256.499083222</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>14.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
@@ -18774,11 +18286,9 @@
         <v>6139196.243683222</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>14.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -18813,11 +18323,9 @@
         <v>6929301.213883222</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>14.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -18852,11 +18360,9 @@
         <v>5812426.156483222</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>14.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -18891,11 +18397,9 @@
         <v>4050840.695983222</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
@@ -18930,11 +18434,9 @@
         <v>6805958.35414119</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>14.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -18969,11 +18471,9 @@
         <v>5998342.196941189</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>14.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -19748,11 +19248,9 @@
         <v>8733624.092141189</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>14.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -19787,11 +19285,9 @@
         <v>9313793.182441188</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>14.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -19826,11 +19322,9 @@
         <v>9137262.483841188</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>14.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
@@ -19865,11 +19359,9 @@
         <v>9920926.711341187</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>14.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -19904,11 +19396,9 @@
         <v>9529467.320841188</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>14.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
@@ -19943,11 +19433,9 @@
         <v>9205896.730941188</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>14.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -19982,11 +19470,9 @@
         <v>8741236.001141187</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>14.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
@@ -20058,11 +19544,9 @@
         <v>8924411.505541187</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>14.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
@@ -20097,11 +19581,9 @@
         <v>8687209.783941187</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>14.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
@@ -20136,11 +19618,9 @@
         <v>9010012.822241187</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>14.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
@@ -20175,11 +19655,9 @@
         <v>9556377.814741187</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>14.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
@@ -20214,11 +19692,9 @@
         <v>9122587.567748683</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -20253,11 +19729,9 @@
         <v>8639641.182548683</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>14.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
@@ -20292,11 +19766,9 @@
         <v>8970062.399848683</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>14.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -20331,11 +19803,9 @@
         <v>9290750.934948683</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>14.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
@@ -20370,11 +19840,9 @@
         <v>9522045.183048682</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>14.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
@@ -20409,11 +19877,9 @@
         <v>9895055.524348682</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>14.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
@@ -20448,11 +19914,9 @@
         <v>9511476.396048682</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>14.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
@@ -20487,11 +19951,9 @@
         <v>9511476.396048682</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>14.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
@@ -20637,11 +20099,9 @@
         <v>9511476.396048682</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>14.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
@@ -20676,11 +20136,9 @@
         <v>11360267.92634868</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>14.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
@@ -20715,11 +20173,9 @@
         <v>11360267.92634868</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>14.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
@@ -21050,11 +20506,9 @@
         <v>10563635.78330505</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>14.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -21163,11 +20617,9 @@
         <v>10348473.30549</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -21202,11 +20654,9 @@
         <v>10153352.61539</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>14.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -21241,11 +20691,9 @@
         <v>10765625.23499</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>14.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -21280,11 +20728,9 @@
         <v>10399807.06850304</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>14.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
@@ -21319,11 +20765,9 @@
         <v>10209899.74050304</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>14.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -21358,11 +20802,9 @@
         <v>10484673.82500304</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>14.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -21471,11 +20913,9 @@
         <v>10474055.62740304</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>14.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
@@ -21510,11 +20950,9 @@
         <v>10199317.25100304</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>14.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
@@ -21549,11 +20987,9 @@
         <v>10478283.26690304</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>14.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -21588,11 +21024,9 @@
         <v>10796318.28130304</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>14.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
@@ -21627,11 +21061,9 @@
         <v>10275294.31750304</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>14.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -21703,11 +21135,9 @@
         <v>10136518.58880304</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>14.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -23962,18 +23392,16 @@
         <v>255834946.3176059</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L665" t="n">
-        <v>1</v>
-      </c>
+      <c r="L665" t="inlineStr"/>
       <c r="M665" t="inlineStr"/>
     </row>
     <row r="666">
@@ -23999,15 +23427,11 @@
         <v>255707291.1528059</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -24036,15 +23460,11 @@
         <v>255714027.5226059</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -24077,11 +23497,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24114,11 +23530,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24151,11 +23563,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24188,11 +23596,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24225,11 +23629,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24262,11 +23662,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24299,11 +23695,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24336,11 +23728,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24373,11 +23761,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24410,11 +23794,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24447,11 +23827,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24484,11 +23860,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24521,11 +23893,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24558,11 +23926,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24595,11 +23959,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24628,15 +23988,11 @@
         <v>255628994.7412381</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24665,15 +24021,11 @@
         <v>255699175.8894381</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24702,15 +24054,11 @@
         <v>255437104.6443123</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24739,15 +24087,11 @@
         <v>255314159.2381123</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24780,12 +24124,10 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
+      <c r="L687" t="n">
+        <v>1</v>
+      </c>
       <c r="M687" t="inlineStr"/>
     </row>
     <row r="688">
@@ -24811,7 +24153,7 @@
         <v>255390310.8005123</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24910,7 +24252,7 @@
         <v>254739061.4588124</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24943,7 +24285,7 @@
         <v>254954303.0559123</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24976,7 +24318,7 @@
         <v>255028271.2760123</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -25009,7 +24351,7 @@
         <v>254899882.230363</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -25075,7 +24417,7 @@
         <v>254923715.822563</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25108,7 +24450,7 @@
         <v>254923715.822563</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25141,7 +24483,7 @@
         <v>254988364.4840136</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25174,7 +24516,7 @@
         <v>254716722.3981643</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25207,7 +24549,7 @@
         <v>254796257.9979643</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25240,7 +24582,7 @@
         <v>254684575.2393643</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25273,7 +24615,7 @@
         <v>254549454.6106643</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25306,7 +24648,7 @@
         <v>254650576.8214643</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25339,7 +24681,7 @@
         <v>254752830.3517643</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25372,7 +24714,7 @@
         <v>253520488.7532643</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25405,7 +24747,7 @@
         <v>253282009.7709643</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25438,7 +24780,7 @@
         <v>253282009.7709643</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25471,7 +24813,7 @@
         <v>252644030.6226643</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25504,7 +24846,7 @@
         <v>253002236.5152643</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25537,7 +24879,7 @@
         <v>252655511.4441643</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25570,7 +24912,7 @@
         <v>252655511.4441643</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25603,7 +24945,7 @@
         <v>252655511.4441643</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25636,7 +24978,7 @@
         <v>252407350.4066643</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25669,7 +25011,7 @@
         <v>252407350.4066643</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25702,7 +25044,7 @@
         <v>251991719.3704643</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25735,7 +25077,7 @@
         <v>251991719.3704643</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25768,7 +25110,7 @@
         <v>252667499.1481643</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25801,7 +25143,7 @@
         <v>252667499.1481643</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25834,7 +25176,7 @@
         <v>252667499.1481643</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25867,7 +25209,7 @@
         <v>252667499.1481643</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25900,7 +25242,7 @@
         <v>252557214.9576643</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25933,7 +25275,7 @@
         <v>252549653.1592643</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25966,7 +25308,7 @@
         <v>250373298.1142643</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25999,7 +25341,7 @@
         <v>249427437.9152643</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26032,7 +25374,7 @@
         <v>249116570.1970643</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26065,7 +25407,7 @@
         <v>248847208.4519643</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -26098,7 +25440,7 @@
         <v>249420369.8992643</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -26131,7 +25473,7 @@
         <v>249150645.1927997</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -26164,7 +25506,7 @@
         <v>248656408.0106997</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -26197,7 +25539,7 @@
         <v>249032872.6909351</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -26230,7 +25572,7 @@
         <v>248548593.4060351</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -26263,7 +25605,7 @@
         <v>248789318.8666351</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -26296,7 +25638,7 @@
         <v>249072237.8488351</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -26329,7 +25671,7 @@
         <v>248924283.8621351</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26362,7 +25704,7 @@
         <v>249139241.3657351</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26395,7 +25737,7 @@
         <v>249318794.710535</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26428,7 +25770,7 @@
         <v>249429882.023035</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26461,7 +25803,7 @@
         <v>249448936.012935</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26494,7 +25836,7 @@
         <v>249247728.4720351</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26527,7 +25869,7 @@
         <v>249247728.4720351</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26560,7 +25902,7 @@
         <v>249340041.3666592</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26593,7 +25935,7 @@
         <v>249112109.2080592</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26626,7 +25968,7 @@
         <v>249112109.2080592</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26659,7 +26001,7 @@
         <v>249112109.2080592</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26692,7 +26034,7 @@
         <v>249112109.2080592</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26725,7 +26067,7 @@
         <v>249396940.5229592</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26758,7 +26100,7 @@
         <v>248944742.0734592</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26791,7 +26133,7 @@
         <v>248752678.0868592</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26824,7 +26166,7 @@
         <v>248894790.8677592</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26857,7 +26199,7 @@
         <v>248649311.0732592</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26890,7 +26232,7 @@
         <v>248894285.6093592</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26923,7 +26265,7 @@
         <v>248739643.0492592</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26956,7 +26298,7 @@
         <v>249079695.6459974</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26989,7 +26331,7 @@
         <v>248800983.4938388</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27022,7 +26364,7 @@
         <v>248641238.4416388</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27055,7 +26397,7 @@
         <v>248499416.2018388</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27088,7 +26430,7 @@
         <v>248664460.5478388</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27121,7 +26463,7 @@
         <v>248664460.5478388</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27154,7 +26496,7 @@
         <v>249139069.1938388</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27187,7 +26529,7 @@
         <v>248616733.0772388</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27220,7 +26562,7 @@
         <v>249162606.2910984</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27253,7 +26595,7 @@
         <v>249321654.4696052</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27286,7 +26628,7 @@
         <v>249255457.0522386</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27319,7 +26661,7 @@
         <v>249162083.3404553</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27352,7 +26694,7 @@
         <v>249283145.4040553</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27385,7 +26727,7 @@
         <v>249163223.1492553</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27418,7 +26760,7 @@
         <v>248750803.1034553</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27451,7 +26793,7 @@
         <v>248872003.1807553</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27484,7 +26826,7 @@
         <v>248797385.4013554</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27517,7 +26859,7 @@
         <v>248797385.4013554</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27550,7 +26892,7 @@
         <v>248960593.3693554</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27583,7 +26925,7 @@
         <v>248525164.6442553</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27616,7 +26958,7 @@
         <v>248623869.0128554</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27649,7 +26991,7 @@
         <v>248694564.7370554</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27682,7 +27024,7 @@
         <v>248352558.1171554</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27715,7 +27057,7 @@
         <v>248220793.4958554</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27748,7 +27090,7 @@
         <v>248220793.4958554</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27781,7 +27123,7 @@
         <v>248220793.4958554</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27814,7 +27156,7 @@
         <v>248250276.7682554</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27847,7 +27189,7 @@
         <v>248250276.7682554</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27880,7 +27222,7 @@
         <v>248978609.1198765</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27913,7 +27255,7 @@
         <v>248747173.5013765</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27946,7 +27288,7 @@
         <v>248873149.9789765</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27979,7 +27321,7 @@
         <v>249018048.5852765</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28012,7 +27354,7 @@
         <v>248882178.4420765</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28045,7 +27387,7 @@
         <v>248882178.4420765</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28078,7 +27420,7 @@
         <v>249089612.9099576</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28111,7 +27453,7 @@
         <v>248877022.8744576</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28144,7 +27486,7 @@
         <v>248877022.8744576</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28177,7 +27519,7 @@
         <v>248856334.2744576</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28210,7 +27552,7 @@
         <v>248953238.9917576</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28243,7 +27585,7 @@
         <v>248953238.9917576</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28276,7 +27618,7 @@
         <v>248899566.6740576</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28309,7 +27651,7 @@
         <v>248958805.7569576</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28342,7 +27684,7 @@
         <v>248918717.5614576</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28375,7 +27717,7 @@
         <v>248918717.5614576</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28408,7 +27750,7 @@
         <v>248843391.0847576</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28441,7 +27783,7 @@
         <v>248674663.4077576</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28474,7 +27816,7 @@
         <v>248725821.7420576</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28507,7 +27849,7 @@
         <v>248562051.7690576</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28540,7 +27882,7 @@
         <v>248562051.7690576</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -28573,7 +27915,7 @@
         <v>248626790.1385576</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28606,7 +27948,7 @@
         <v>248573106.8907576</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -28639,7 +27981,7 @@
         <v>248513629.0301576</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -28672,7 +28014,7 @@
         <v>248513629.0301576</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -28705,7 +28047,7 @@
         <v>248537062.6646576</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -28738,7 +28080,7 @@
         <v>248735068.5692576</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -28771,7 +28113,7 @@
         <v>248602222.4978576</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -28804,7 +28146,7 @@
         <v>248594434.4049576</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -28837,7 +28179,7 @@
         <v>248657295.4212576</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -28870,7 +28212,7 @@
         <v>248929231.7271866</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -28903,7 +28245,7 @@
         <v>248744917.7627866</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -28936,7 +28278,7 @@
         <v>248798861.4828866</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28969,7 +28311,7 @@
         <v>248730776.4640866</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29002,7 +28344,7 @@
         <v>248730776.4640866</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29035,7 +28377,7 @@
         <v>248611869.0345866</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29068,7 +28410,7 @@
         <v>249026069.5895866</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -29101,7 +28443,7 @@
         <v>249278315.4452866</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -29134,7 +28476,7 @@
         <v>249444468.5499866</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -29167,7 +28509,7 @@
         <v>249039515.6017866</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29200,7 +28542,7 @@
         <v>249039515.6017866</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -29233,7 +28575,7 @@
         <v>249039515.6017866</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -29266,7 +28608,7 @@
         <v>249039515.6017866</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -29299,7 +28641,7 @@
         <v>249039515.6017866</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29332,7 +28674,7 @@
         <v>248501981.0299866</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -29365,7 +28707,7 @@
         <v>248364857.9614866</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29398,7 +28740,7 @@
         <v>248694056.3891866</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29431,7 +28773,7 @@
         <v>248901384.9780866</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29464,7 +28806,7 @@
         <v>248663870.9557866</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29497,7 +28839,7 @@
         <v>248831881.4387866</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29530,7 +28872,7 @@
         <v>248573692.8448866</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29563,7 +28905,7 @@
         <v>248780221.6198866</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29596,7 +28938,7 @@
         <v>248673095.0250866</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29629,7 +28971,7 @@
         <v>248564868.1959866</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29662,7 +29004,7 @@
         <v>248659788.3589866</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29695,7 +29037,7 @@
         <v>248561301.0107866</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -29728,7 +29070,7 @@
         <v>248646194.4223866</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -29761,7 +29103,7 @@
         <v>248546061.9330866</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29794,7 +29136,7 @@
         <v>248715450.8723866</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29827,7 +29169,7 @@
         <v>248887691.3255866</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -29860,7 +29202,7 @@
         <v>248915302.0969866</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29893,7 +29235,7 @@
         <v>248878663.6520866</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29926,7 +29268,7 @@
         <v>248921354.2972866</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29959,7 +29301,7 @@
         <v>247658825.6403866</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29992,7 +29334,7 @@
         <v>247658825.6403866</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30025,7 +29367,7 @@
         <v>247920533.4104866</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30058,7 +29400,7 @@
         <v>248028424.2801866</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30091,7 +29433,7 @@
         <v>247889028.9916866</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30124,7 +29466,7 @@
         <v>247775000.4621866</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30157,7 +29499,7 @@
         <v>247670377.1673866</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30190,7 +29532,7 @@
         <v>247605406.5978866</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30223,7 +29565,7 @@
         <v>247710883.7200866</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30256,7 +29598,7 @@
         <v>247734044.2803866</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30289,7 +29631,7 @@
         <v>247644740.5887866</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30322,7 +29664,7 @@
         <v>247741749.1559866</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30355,7 +29697,7 @@
         <v>247691977.8971866</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30388,7 +29730,7 @@
         <v>247634410.2116866</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30421,7 +29763,7 @@
         <v>247535274.9755866</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30454,7 +29796,7 @@
         <v>247557511.5323866</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30487,7 +29829,7 @@
         <v>247582004.9555093</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30520,7 +29862,7 @@
         <v>247543617.3824093</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30553,7 +29895,7 @@
         <v>247469632.3257093</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30586,7 +29928,7 @@
         <v>247411975.2210093</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30619,7 +29961,7 @@
         <v>247378678.7206093</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30652,7 +29994,7 @@
         <v>247378678.7206093</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30685,7 +30027,7 @@
         <v>247233066.5525093</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30718,7 +30060,7 @@
         <v>247192151.0481093</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30751,7 +30093,7 @@
         <v>247192151.0481093</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -30784,7 +30126,7 @@
         <v>247024870.0379093</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30817,7 +30159,7 @@
         <v>247024870.0379093</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -30850,7 +30192,7 @@
         <v>247063374.1712093</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30883,7 +30225,7 @@
         <v>246566532.2855447</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30916,7 +30258,7 @@
         <v>246870249.3048447</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30949,7 +30291,7 @@
         <v>246526764.7748447</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30982,7 +30324,7 @@
         <v>246705450.1375447</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -31015,7 +30357,7 @@
         <v>246785073.8324447</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -31048,7 +30390,7 @@
         <v>246760582.5873447</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31081,7 +30423,7 @@
         <v>246760582.5873447</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -31114,7 +30456,7 @@
         <v>246571678.3610447</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31147,7 +30489,7 @@
         <v>246571678.3610447</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -31180,7 +30522,7 @@
         <v>246593879.0058447</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31213,7 +30555,7 @@
         <v>246541424.0037113</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31246,7 +30588,7 @@
         <v>246652970.0188778</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -31279,7 +30621,7 @@
         <v>246686491.2335778</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31312,7 +30654,7 @@
         <v>246737489.4247778</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31345,7 +30687,7 @@
         <v>246782066.5536778</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31378,7 +30720,7 @@
         <v>246840874.3675778</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31411,7 +30753,7 @@
         <v>246743849.5119778</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31444,7 +30786,7 @@
         <v>246840574.7097778</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31477,7 +30819,7 @@
         <v>246790118.9550079</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31510,7 +30852,7 @@
         <v>246773388.1395079</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31543,7 +30885,7 @@
         <v>246887757.1260079</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31576,7 +30918,7 @@
         <v>246996298.4034079</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -31609,7 +30951,7 @@
         <v>246996298.4034079</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -31642,7 +30984,7 @@
         <v>247035818.0980079</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31675,7 +31017,7 @@
         <v>246996523.5099079</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -31708,7 +31050,7 @@
         <v>246996523.5099079</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -31741,7 +31083,7 @@
         <v>246996523.5099079</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -31774,7 +31116,7 @@
         <v>246851876.0798079</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -31807,7 +31149,7 @@
         <v>246797367.2155079</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -31840,7 +31182,7 @@
         <v>246818964.6349079</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -31873,7 +31215,7 @@
         <v>246818964.6349079</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31906,7 +31248,7 @@
         <v>246764784.5373079</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31939,7 +31281,7 @@
         <v>246826536.7066079</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -31972,7 +31314,7 @@
         <v>246782857.6681079</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32005,7 +31347,7 @@
         <v>246604866.7603744</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32038,7 +31380,7 @@
         <v>246707445.5037744</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32071,7 +31413,7 @@
         <v>246608852.0618744</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32104,7 +31446,7 @@
         <v>246629952.7105744</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32137,7 +31479,7 @@
         <v>246629952.7105744</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32170,7 +31512,7 @@
         <v>246629952.7105744</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -32203,7 +31545,7 @@
         <v>246629952.7105744</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -32236,7 +31578,7 @@
         <v>246629952.7105744</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32269,7 +31611,7 @@
         <v>246705584.9810416</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32302,7 +31644,7 @@
         <v>246856488.2329415</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32335,7 +31677,7 @@
         <v>246856488.2329415</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32368,7 +31710,7 @@
         <v>246887703.5792415</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32401,7 +31743,7 @@
         <v>246838402.5533415</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32434,7 +31776,7 @@
         <v>246949092.6955415</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32467,7 +31809,7 @@
         <v>247174536.5104337</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32500,7 +31842,7 @@
         <v>247147145.4325337</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -32533,7 +31875,7 @@
         <v>246994878.0498337</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32566,7 +31908,7 @@
         <v>246958089.2073337</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32599,7 +31941,7 @@
         <v>246931886.2814337</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32632,7 +31974,7 @@
         <v>246903944.9123337</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32665,7 +32007,7 @@
         <v>246903944.9123337</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32698,7 +32040,7 @@
         <v>246904185.6703213</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32731,7 +32073,7 @@
         <v>246904185.6703213</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32764,7 +32106,7 @@
         <v>246904185.6703213</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32797,7 +32139,7 @@
         <v>247023736.6827337</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32830,7 +32172,7 @@
         <v>246890185.1874462</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32863,7 +32205,7 @@
         <v>246890185.1874462</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32896,7 +32238,7 @@
         <v>246962295.1690462</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32929,7 +32271,7 @@
         <v>246922104.0928462</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -32962,7 +32304,7 @@
         <v>246922104.0928462</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32995,7 +32337,7 @@
         <v>246995509.7893462</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33028,7 +32370,7 @@
         <v>246995509.7893462</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33061,7 +32403,7 @@
         <v>246717445.9067461</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33094,7 +32436,7 @@
         <v>246764560.3174461</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33127,7 +32469,7 @@
         <v>246764560.3174461</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33160,7 +32502,7 @@
         <v>246634725.3524461</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33193,7 +32535,7 @@
         <v>246444788.4893461</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33226,7 +32568,7 @@
         <v>246592099.0854461</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33259,7 +32601,7 @@
         <v>246539194.1563461</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33292,7 +32634,7 @@
         <v>246371655.2655461</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33325,7 +32667,7 @@
         <v>246439993.2261461</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33358,7 +32700,7 @@
         <v>246460647.6445461</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33391,7 +32733,7 @@
         <v>246475164.1536461</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33424,7 +32766,7 @@
         <v>246416210.0641461</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33457,7 +32799,7 @@
         <v>246313257.8025461</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33490,7 +32832,7 @@
         <v>246391679.6013461</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33523,7 +32865,7 @@
         <v>246306170.2804461</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33556,7 +32898,7 @@
         <v>246362273.0186461</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33589,7 +32931,7 @@
         <v>246332992.0915461</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -33622,7 +32964,7 @@
         <v>246506376.4529461</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -33655,7 +32997,7 @@
         <v>246577902.2268007</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -33688,7 +33030,7 @@
         <v>246577902.2268007</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -33721,7 +33063,7 @@
         <v>246577902.2268007</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -33754,7 +33096,7 @@
         <v>246554495.3031007</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -33787,7 +33129,7 @@
         <v>246745604.1692007</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -33820,7 +33162,7 @@
         <v>246920822.7560007</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -33853,7 +33195,7 @@
         <v>246892796.5663007</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33886,7 +33228,7 @@
         <v>246912420.7031007</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33919,7 +33261,7 @@
         <v>246912420.7031007</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33952,7 +33294,7 @@
         <v>246912420.7031007</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -33985,7 +33327,7 @@
         <v>246912420.7031007</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34018,7 +33360,7 @@
         <v>246912420.7031007</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34051,7 +33393,7 @@
         <v>246912420.7031007</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -34084,7 +33426,7 @@
         <v>246912420.7031007</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -34117,7 +33459,7 @@
         <v>247007052.9203461</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34150,7 +33492,7 @@
         <v>246992144.9564461</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34183,7 +33525,7 @@
         <v>247016741.9267461</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34216,7 +33558,7 @@
         <v>246999820.8062461</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34249,7 +33591,7 @@
         <v>246976024.3631461</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34282,7 +33624,7 @@
         <v>246976024.3631461</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -34315,7 +33657,7 @@
         <v>246750182.8863916</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -34348,7 +33690,7 @@
         <v>246750182.8863916</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34381,7 +33723,7 @@
         <v>246750182.8863916</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34414,7 +33756,7 @@
         <v>246686398.1728916</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34447,7 +33789,7 @@
         <v>246686398.1728916</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34480,7 +33822,7 @@
         <v>246731940.7054916</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34513,7 +33855,7 @@
         <v>246709825.7068916</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34546,7 +33888,7 @@
         <v>246853605.5426916</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34579,7 +33921,7 @@
         <v>246853605.5426916</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34612,7 +33954,7 @@
         <v>247060131.5331916</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34645,7 +33987,7 @@
         <v>246997723.0289916</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34678,7 +34020,7 @@
         <v>246973715.7818916</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34711,7 +34053,7 @@
         <v>247001207.2387916</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34744,7 +34086,7 @@
         <v>247048697.6625915</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34777,7 +34119,7 @@
         <v>246955978.8113915</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34810,7 +34152,7 @@
         <v>246864056.9766915</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34843,7 +34185,7 @@
         <v>246881413.8693915</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34876,7 +34218,7 @@
         <v>246811392.0273915</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -34909,7 +34251,7 @@
         <v>246811392.0273915</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -34942,7 +34284,7 @@
         <v>246787012.2794915</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -34975,7 +34317,7 @@
         <v>246802249.2307915</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -35008,7 +34350,7 @@
         <v>246958597.9646915</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -35041,7 +34383,7 @@
         <v>246940324.0433915</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -35074,7 +34416,7 @@
         <v>247006507.7021915</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -35107,7 +34449,7 @@
         <v>247068068.6653915</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35140,7 +34482,7 @@
         <v>247026437.8084915</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35173,7 +34515,7 @@
         <v>247040684.2760915</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -35206,7 +34548,7 @@
         <v>247024011.7568915</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -35239,7 +34581,7 @@
         <v>247038648.4962915</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -35272,7 +34614,7 @@
         <v>247072085.5247915</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -35305,7 +34647,7 @@
         <v>247072085.5247915</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35338,7 +34680,7 @@
         <v>247005699.3321915</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35371,7 +34713,7 @@
         <v>247005699.3321915</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35404,7 +34746,7 @@
         <v>247026932.9978693</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35437,7 +34779,7 @@
         <v>247242417.957902</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35470,7 +34812,7 @@
         <v>247218394.729902</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -35503,7 +34845,7 @@
         <v>247205258.023202</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -35536,7 +34878,7 @@
         <v>247194310.912502</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -35569,7 +34911,7 @@
         <v>247154844.291202</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -35602,7 +34944,7 @@
         <v>247190794.485502</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -35635,7 +34977,7 @@
         <v>247190794.485502</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35668,7 +35010,7 @@
         <v>247106030.787702</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -35701,7 +35043,7 @@
         <v>247105824.056502</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35734,7 +35076,7 @@
         <v>247105824.056502</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35767,7 +35109,7 @@
         <v>247105824.056502</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -35800,7 +35142,7 @@
         <v>247105824.056502</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -35833,7 +35175,7 @@
         <v>247065000.147902</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -35866,7 +35208,7 @@
         <v>246979352.1703019</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -35899,7 +35241,7 @@
         <v>247014193.3166019</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -35932,7 +35274,7 @@
         <v>247014193.3166019</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -35965,7 +35307,7 @@
         <v>247014193.3166019</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -35998,7 +35340,7 @@
         <v>246859377.9862019</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -36031,7 +35373,7 @@
         <v>246934117.7171019</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36064,7 +35406,7 @@
         <v>246959481.0843019</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -36097,7 +35439,7 @@
         <v>246959481.0843019</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -36130,7 +35472,7 @@
         <v>246921255.5801019</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -36163,7 +35505,7 @@
         <v>246921255.5801019</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36196,7 +35538,7 @@
         <v>246921255.5801019</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -36229,7 +35571,7 @@
         <v>246921255.5801019</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -36262,7 +35604,7 @@
         <v>247006788.7356019</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -36295,7 +35637,7 @@
         <v>247006788.7356019</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -36328,7 +35670,7 @@
         <v>246867162.2264019</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -36361,7 +35703,7 @@
         <v>247141626.9796019</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36394,7 +35736,7 @@
         <v>247141626.9796019</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -36427,7 +35769,7 @@
         <v>247260864.5109681</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -36460,7 +35802,7 @@
         <v>247313521.3239681</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -36493,7 +35835,7 @@
         <v>247435772.6700681</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -36526,7 +35868,7 @@
         <v>247435772.6700681</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -36559,7 +35901,7 @@
         <v>247435772.6700681</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -36592,7 +35934,7 @@
         <v>247435772.6700681</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -36625,7 +35967,7 @@
         <v>247435772.6700681</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -36658,7 +36000,7 @@
         <v>247404710.8045681</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -36691,7 +36033,7 @@
         <v>247679183.2950094</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -36724,7 +36066,7 @@
         <v>247753835.8173858</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -36757,7 +36099,7 @@
         <v>247890454.3775858</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -36790,7 +36132,7 @@
         <v>247890454.3775858</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -36823,7 +36165,7 @@
         <v>247956979.0991858</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -36856,7 +36198,7 @@
         <v>247956979.0991858</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -36889,7 +36231,7 @@
         <v>247956979.0991858</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -36922,7 +36264,7 @@
         <v>247898615.7846858</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -36955,7 +36297,7 @@
         <v>248178515.5112858</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -36988,7 +36330,7 @@
         <v>248243656.9820858</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -37021,7 +36363,7 @@
         <v>248243656.9820858</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -37054,7 +36396,7 @@
         <v>248243656.9820858</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -37087,7 +36429,7 @@
         <v>248112887.0863858</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -37120,7 +36462,7 @@
         <v>248209018.9260678</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -37153,7 +36495,7 @@
         <v>248279469.5750282</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -37186,7 +36528,7 @@
         <v>248279469.5750282</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -37219,7 +36561,7 @@
         <v>248469216.0326419</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -37252,7 +36594,7 @@
         <v>248496549.909842</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -37285,7 +36627,7 @@
         <v>248428592.663442</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -37318,7 +36660,7 @@
         <v>248428592.663442</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -37351,7 +36693,7 @@
         <v>248497989.422942</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -37384,7 +36726,7 @@
         <v>248826799.917442</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -37417,7 +36759,7 @@
         <v>248790316.1825755</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -37450,7 +36792,7 @@
         <v>248806591.4828732</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -37483,7 +36825,7 @@
         <v>248770562.7967732</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -37516,7 +36858,7 @@
         <v>248792102.6325732</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -37549,7 +36891,7 @@
         <v>248855118.1447642</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -37582,7 +36924,7 @@
         <v>248790435.4880642</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -37615,7 +36957,7 @@
         <v>248964019.6241642</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -37648,7 +36990,7 @@
         <v>248951019.6241642</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -37681,7 +37023,7 @@
         <v>248951019.6241642</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -37714,7 +37056,7 @@
         <v>248951019.6241642</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -37747,7 +37089,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -37780,7 +37122,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -37813,7 +37155,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -37846,7 +37188,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -37879,7 +37221,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -37912,7 +37254,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -37945,7 +37287,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -37978,7 +37320,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1087" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -38011,7 +37353,7 @@
         <v>248975246.8356642</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -38044,7 +37386,7 @@
         <v>248979587.0945198</v>
       </c>
       <c r="H1089" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -38077,7 +37419,7 @@
         <v>248979587.0945198</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -38110,7 +37452,7 @@
         <v>248979587.0945198</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -38143,7 +37485,7 @@
         <v>248979587.0945198</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -38176,7 +37518,7 @@
         <v>249016471.6913832</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -38209,7 +37551,7 @@
         <v>249016471.6913832</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -38242,7 +37584,7 @@
         <v>249016471.6913832</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -38275,7 +37617,7 @@
         <v>249016471.6913832</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -38308,7 +37650,7 @@
         <v>249016471.6913832</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -38341,7 +37683,7 @@
         <v>249012471.6913832</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -38374,7 +37716,7 @@
         <v>248354244.9215832</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -38407,7 +37749,7 @@
         <v>248354244.9215832</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -38440,7 +37782,7 @@
         <v>248354244.9215832</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -38473,7 +37815,7 @@
         <v>248354244.9215832</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -38506,7 +37848,7 @@
         <v>248354244.9215832</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -38539,7 +37881,7 @@
         <v>248344563.5001832</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -38572,7 +37914,7 @@
         <v>248344466.7560832</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -38605,7 +37947,7 @@
         <v>248095626.2925832</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -38638,7 +37980,7 @@
         <v>248095626.2925832</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -38671,7 +38013,7 @@
         <v>248095626.2925832</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -38704,7 +38046,7 @@
         <v>248251782.3177832</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -38737,7 +38079,7 @@
         <v>247823111.5496832</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -38770,7 +38112,7 @@
         <v>247757083.2343833</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -38803,7 +38145,7 @@
         <v>247815740.2154832</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -38836,7 +38178,7 @@
         <v>247780348.3527833</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -38869,7 +38211,7 @@
         <v>247750046.4635833</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -38902,7 +38244,7 @@
         <v>247802541.4350833</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -38935,7 +38277,7 @@
         <v>247501337.6991833</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -38968,7 +38310,7 @@
         <v>247470050.5351833</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -39001,7 +38343,7 @@
         <v>247533718.4042833</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -39034,7 +38376,7 @@
         <v>247547742.5897833</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -39067,7 +38409,7 @@
         <v>247525101.0008833</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -39100,7 +38442,7 @@
         <v>247602141.4858833</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -39133,7 +38475,7 @@
         <v>247815778.0681833</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -39166,7 +38508,7 @@
         <v>247765710.6910833</v>
       </c>
       <c r="H1123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -39199,7 +38541,7 @@
         <v>247776294.3320833</v>
       </c>
       <c r="H1124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -39232,7 +38574,7 @@
         <v>247764682.7294833</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -39265,7 +38607,7 @@
         <v>247736559.7000833</v>
       </c>
       <c r="H1126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -39298,7 +38640,7 @@
         <v>247791670.5791833</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -39331,7 +38673,7 @@
         <v>247840702.2261833</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -39364,7 +38706,7 @@
         <v>247856250.3830833</v>
       </c>
       <c r="H1129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -39397,7 +38739,7 @@
         <v>247841219.1184833</v>
       </c>
       <c r="H1130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -39430,7 +38772,7 @@
         <v>247841219.1184833</v>
       </c>
       <c r="H1131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -39463,7 +38805,7 @@
         <v>247806447.2121833</v>
       </c>
       <c r="H1132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -39496,7 +38838,7 @@
         <v>247806447.2121833</v>
       </c>
       <c r="H1133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -39529,7 +38871,7 @@
         <v>247806447.2121833</v>
       </c>
       <c r="H1134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -39562,7 +38904,7 @@
         <v>247796146.7925833</v>
       </c>
       <c r="H1135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -39595,7 +38937,7 @@
         <v>247950824.5869833</v>
       </c>
       <c r="H1136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -39628,7 +38970,7 @@
         <v>247928703.4227833</v>
       </c>
       <c r="H1137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -39661,7 +39003,7 @@
         <v>248082822.9825833</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -39694,7 +39036,7 @@
         <v>248177243.4851833</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -39727,7 +39069,7 @@
         <v>248131253.1586833</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -39760,7 +39102,7 @@
         <v>247998533.2792833</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -39793,7 +39135,7 @@
         <v>247984314.5350833</v>
       </c>
       <c r="H1142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -39826,7 +39168,7 @@
         <v>248052146.4747005</v>
       </c>
       <c r="H1143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -39859,7 +39201,7 @@
         <v>248150708.6465005</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -39892,7 +39234,7 @@
         <v>248213327.4972833</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -39925,7 +39267,7 @@
         <v>248186725.2522832</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -39958,7 +39300,7 @@
         <v>248186725.2522832</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -39991,7 +39333,7 @@
         <v>248212396.5555832</v>
       </c>
       <c r="H1148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -40024,7 +39366,7 @@
         <v>248153315.6395832</v>
       </c>
       <c r="H1149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -40057,7 +39399,7 @@
         <v>248178993.9621832</v>
       </c>
       <c r="H1150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -40090,7 +39432,7 @@
         <v>248150841.7781833</v>
       </c>
       <c r="H1151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -40123,7 +39465,7 @@
         <v>248126621.2184832</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -40156,7 +39498,7 @@
         <v>248126621.2184832</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -40189,7 +39531,7 @@
         <v>248195539.206078</v>
       </c>
       <c r="H1154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -40222,7 +39564,7 @@
         <v>248195539.206078</v>
       </c>
       <c r="H1155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -40255,7 +39597,7 @@
         <v>247767670.987078</v>
       </c>
       <c r="H1156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -40288,7 +39630,7 @@
         <v>247923895.5639062</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -40321,7 +39663,7 @@
         <v>248009519.3003287</v>
       </c>
       <c r="H1158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -40354,7 +39696,7 @@
         <v>247979036.4996287</v>
       </c>
       <c r="H1159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -40387,7 +39729,7 @@
         <v>248013203.6415287</v>
       </c>
       <c r="H1160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -40420,7 +39762,7 @@
         <v>247997897.2781287</v>
       </c>
       <c r="H1161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -40453,7 +39795,7 @@
         <v>248017725.1542287</v>
       </c>
       <c r="H1162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -40486,7 +39828,7 @@
         <v>248017725.1542287</v>
       </c>
       <c r="H1163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -40519,7 +39861,7 @@
         <v>248029962.4645287</v>
       </c>
       <c r="H1164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -40552,7 +39894,7 @@
         <v>248060066.5400287</v>
       </c>
       <c r="H1165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -40585,7 +39927,7 @@
         <v>248060066.5400287</v>
       </c>
       <c r="H1166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -40618,7 +39960,7 @@
         <v>248012568.9203287</v>
       </c>
       <c r="H1167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -40651,7 +39993,7 @@
         <v>248040382.1963287</v>
       </c>
       <c r="H1168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -40684,7 +40026,7 @@
         <v>247995519.0329287</v>
       </c>
       <c r="H1169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
@@ -40717,7 +40059,7 @@
         <v>248067621.7798287</v>
       </c>
       <c r="H1170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
@@ -40750,7 +40092,7 @@
         <v>248067621.7798287</v>
       </c>
       <c r="H1171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
@@ -40783,7 +40125,7 @@
         <v>248230829.1194287</v>
       </c>
       <c r="H1172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
@@ -40816,7 +40158,7 @@
         <v>248030924.9953287</v>
       </c>
       <c r="H1173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -40849,7 +40191,7 @@
         <v>248125947.9915287</v>
       </c>
       <c r="H1174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -40882,7 +40224,7 @@
         <v>248125947.9915287</v>
       </c>
       <c r="H1175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -40915,7 +40257,7 @@
         <v>248125947.9915287</v>
       </c>
       <c r="H1176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
@@ -40948,7 +40290,7 @@
         <v>247729078.5012287</v>
       </c>
       <c r="H1177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -40981,7 +40323,7 @@
         <v>247593856.5284287</v>
       </c>
       <c r="H1178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -41014,7 +40356,7 @@
         <v>247627714.0466287</v>
       </c>
       <c r="H1179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
@@ -41047,7 +40389,7 @@
         <v>247672840.4173287</v>
       </c>
       <c r="H1180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
@@ -41080,7 +40422,7 @@
         <v>247814219.6251287</v>
       </c>
       <c r="H1181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
@@ -41113,7 +40455,7 @@
         <v>247704550.1754287</v>
       </c>
       <c r="H1182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
@@ -41146,7 +40488,7 @@
         <v>247759773.1922287</v>
       </c>
       <c r="H1183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
@@ -41179,7 +40521,7 @@
         <v>247696730.0280287</v>
       </c>
       <c r="H1184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
@@ -41212,7 +40554,7 @@
         <v>247615773.9915287</v>
       </c>
       <c r="H1185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
@@ -41245,7 +40587,7 @@
         <v>247644879.2034287</v>
       </c>
       <c r="H1186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
@@ -41278,7 +40620,7 @@
         <v>247644879.2034287</v>
       </c>
       <c r="H1187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
@@ -41311,7 +40653,7 @@
         <v>247576960.2873287</v>
       </c>
       <c r="H1188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
@@ -41344,7 +40686,7 @@
         <v>247670752.6067287</v>
       </c>
       <c r="H1189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
@@ -41377,7 +40719,7 @@
         <v>247602690.2015287</v>
       </c>
       <c r="H1190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
@@ -41410,7 +40752,7 @@
         <v>247641350.8684287</v>
       </c>
       <c r="H1191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
@@ -41443,7 +40785,7 @@
         <v>247641350.8684287</v>
       </c>
       <c r="H1192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
@@ -41476,7 +40818,7 @@
         <v>247515963.5391287</v>
       </c>
       <c r="H1193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
@@ -41509,7 +40851,7 @@
         <v>247589193.5589287</v>
       </c>
       <c r="H1194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
@@ -41542,7 +40884,7 @@
         <v>247548091.9676287</v>
       </c>
       <c r="H1195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
@@ -41575,7 +40917,7 @@
         <v>247408920.3644287</v>
       </c>
       <c r="H1196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
@@ -41608,7 +40950,7 @@
         <v>247474559.6209287</v>
       </c>
       <c r="H1197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
@@ -41641,7 +40983,7 @@
         <v>247474559.6209287</v>
       </c>
       <c r="H1198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
@@ -41674,7 +41016,7 @@
         <v>247360199.8108287</v>
       </c>
       <c r="H1199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
@@ -41707,7 +41049,7 @@
         <v>247197265.2118287</v>
       </c>
       <c r="H1200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
@@ -41740,7 +41082,7 @@
         <v>247410264.9154287</v>
       </c>
       <c r="H1201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
@@ -41773,7 +41115,7 @@
         <v>247554372.7420287</v>
       </c>
       <c r="H1202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
@@ -41806,7 +41148,7 @@
         <v>247722942.0729287</v>
       </c>
       <c r="H1203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
@@ -41839,7 +41181,7 @@
         <v>248210405.5298287</v>
       </c>
       <c r="H1204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
@@ -41872,7 +41214,7 @@
         <v>248970341.0751287</v>
       </c>
       <c r="H1205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
@@ -41905,7 +41247,7 @@
         <v>248970341.0751287</v>
       </c>
       <c r="H1206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
@@ -41938,7 +41280,7 @@
         <v>248749006.0876287</v>
       </c>
       <c r="H1207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
@@ -41971,7 +41313,7 @@
         <v>248670997.5463287</v>
       </c>
       <c r="H1208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
@@ -42004,7 +41346,7 @@
         <v>249044207.3541287</v>
       </c>
       <c r="H1209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
@@ -42037,7 +41379,7 @@
         <v>249044207.3541287</v>
       </c>
       <c r="H1210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
@@ -42070,7 +41412,7 @@
         <v>248375049.0883287</v>
       </c>
       <c r="H1211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
@@ -42103,7 +41445,7 @@
         <v>248648518.1289843</v>
       </c>
       <c r="H1212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
@@ -42136,7 +41478,7 @@
         <v>248689986.9794843</v>
       </c>
       <c r="H1213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
@@ -42169,7 +41511,7 @@
         <v>248732909.1839843</v>
       </c>
       <c r="H1214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
@@ -42202,7 +41544,7 @@
         <v>248564402.4562843</v>
       </c>
       <c r="H1215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
@@ -42235,7 +41577,7 @@
         <v>248980202.0253843</v>
       </c>
       <c r="H1216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
@@ -42268,7 +41610,7 @@
         <v>248980202.0253843</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
@@ -42301,7 +41643,7 @@
         <v>248965919.8834843</v>
       </c>
       <c r="H1218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
@@ -42334,7 +41676,7 @@
         <v>249025344.8057843</v>
       </c>
       <c r="H1219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
@@ -42367,7 +41709,7 @@
         <v>248967054.7204843</v>
       </c>
       <c r="H1220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
@@ -42400,7 +41742,7 @@
         <v>249033920.6449843</v>
       </c>
       <c r="H1221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
@@ -42433,7 +41775,7 @@
         <v>249081020.3951843</v>
       </c>
       <c r="H1222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
@@ -42466,7 +41808,7 @@
         <v>249022238.3406843</v>
       </c>
       <c r="H1223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
@@ -42499,7 +41841,7 @@
         <v>249104870.6260843</v>
       </c>
       <c r="H1224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
@@ -42532,7 +41874,7 @@
         <v>249221501.2903843</v>
       </c>
       <c r="H1225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
@@ -42565,7 +41907,7 @@
         <v>249245040.5981843</v>
       </c>
       <c r="H1226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
@@ -42598,7 +41940,7 @@
         <v>249239750.7414843</v>
       </c>
       <c r="H1227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
@@ -42631,7 +41973,7 @@
         <v>249314198.8311843</v>
       </c>
       <c r="H1228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
@@ -42664,7 +42006,7 @@
         <v>249385802.2389843</v>
       </c>
       <c r="H1229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
@@ -42697,7 +42039,7 @@
         <v>249283251.4628515</v>
       </c>
       <c r="H1230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
@@ -42730,7 +42072,7 @@
         <v>249315547.3432515</v>
       </c>
       <c r="H1231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
@@ -42763,7 +42105,7 @@
         <v>249346788.0176187</v>
       </c>
       <c r="H1232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
@@ -42796,7 +42138,7 @@
         <v>249346788.0176187</v>
       </c>
       <c r="H1233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
@@ -42829,7 +42171,7 @@
         <v>249346788.0176187</v>
       </c>
       <c r="H1234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
@@ -42862,7 +42204,7 @@
         <v>249345103.0952187</v>
       </c>
       <c r="H1235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
@@ -42895,7 +42237,7 @@
         <v>249396108.6092871</v>
       </c>
       <c r="H1236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
@@ -42928,7 +42270,7 @@
         <v>249417286.0163187</v>
       </c>
       <c r="H1237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
@@ -42961,7 +42303,7 @@
         <v>249519280.42668</v>
       </c>
       <c r="H1238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
@@ -42994,7 +42336,7 @@
         <v>249317587.3498116</v>
       </c>
       <c r="H1239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
@@ -43027,7 +42369,7 @@
         <v>249105587.1295117</v>
       </c>
       <c r="H1240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
@@ -43060,7 +42402,7 @@
         <v>249105587.1295117</v>
       </c>
       <c r="H1241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
@@ -43093,7 +42435,7 @@
         <v>248861949.4929789</v>
       </c>
       <c r="H1242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
@@ -43126,7 +42468,7 @@
         <v>249328450.9886789</v>
       </c>
       <c r="H1243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
@@ -43159,7 +42501,7 @@
         <v>249514043.3525789</v>
       </c>
       <c r="H1244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
@@ -43192,7 +42534,7 @@
         <v>249430997.3608789</v>
       </c>
       <c r="H1245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
@@ -43225,7 +42567,7 @@
         <v>249562332.6566789</v>
       </c>
       <c r="H1246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="inlineStr"/>
@@ -43258,7 +42600,7 @@
         <v>249475565.2023789</v>
       </c>
       <c r="H1247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
@@ -43291,7 +42633,7 @@
         <v>249695605.4846789</v>
       </c>
       <c r="H1248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
@@ -43324,7 +42666,7 @@
         <v>249567658.4828789</v>
       </c>
       <c r="H1249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="inlineStr"/>
@@ -43357,7 +42699,7 @@
         <v>249752085.3856789</v>
       </c>
       <c r="H1250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="inlineStr"/>
@@ -43390,7 +42732,7 @@
         <v>249875529.4948789</v>
       </c>
       <c r="H1251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="inlineStr"/>
@@ -43423,7 +42765,7 @@
         <v>249761545.6328789</v>
       </c>
       <c r="H1252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="inlineStr"/>
@@ -43456,7 +42798,7 @@
         <v>249620857.4100789</v>
       </c>
       <c r="H1253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="inlineStr"/>
@@ -43489,7 +42831,7 @@
         <v>249717854.7353789</v>
       </c>
       <c r="H1254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="inlineStr"/>
@@ -43522,7 +42864,7 @@
         <v>249616525.6994789</v>
       </c>
       <c r="H1255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="inlineStr"/>
@@ -43555,7 +42897,7 @@
         <v>249399678.9176789</v>
       </c>
       <c r="H1256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="inlineStr"/>
@@ -43588,7 +42930,7 @@
         <v>249578435.4679789</v>
       </c>
       <c r="H1257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="inlineStr"/>
@@ -43621,7 +42963,7 @@
         <v>249537440.5375789</v>
       </c>
       <c r="H1258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="inlineStr"/>
@@ -43654,7 +42996,7 @@
         <v>249680132.4318789</v>
       </c>
       <c r="H1259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="inlineStr"/>
@@ -43687,7 +43029,7 @@
         <v>249564552.4866789</v>
       </c>
       <c r="H1260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="inlineStr"/>
@@ -43720,7 +43062,7 @@
         <v>249766962.5338789</v>
       </c>
       <c r="H1261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="inlineStr"/>
@@ -43753,7 +43095,7 @@
         <v>249644602.5039789</v>
       </c>
       <c r="H1262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="inlineStr"/>
@@ -43786,7 +43128,7 @@
         <v>249518232.1930789</v>
       </c>
       <c r="H1263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="inlineStr"/>
@@ -43819,7 +43161,7 @@
         <v>249443230.4775789</v>
       </c>
       <c r="H1264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="inlineStr"/>
@@ -43852,7 +43194,7 @@
         <v>249465406.6668789</v>
       </c>
       <c r="H1265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="inlineStr"/>
@@ -43885,7 +43227,7 @@
         <v>249384023.1371789</v>
       </c>
       <c r="H1266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="inlineStr"/>
@@ -43918,7 +43260,7 @@
         <v>249606580.3450789</v>
       </c>
       <c r="H1267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="inlineStr"/>
@@ -43951,7 +43293,7 @@
         <v>249606580.3450789</v>
       </c>
       <c r="H1268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="inlineStr"/>
@@ -43984,7 +43326,7 @@
         <v>249529889.2512789</v>
       </c>
       <c r="H1269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="inlineStr"/>
@@ -44017,7 +43359,7 @@
         <v>249588645.4127789</v>
       </c>
       <c r="H1270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
@@ -44050,7 +43392,7 @@
         <v>249588645.4127789</v>
       </c>
       <c r="H1271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="inlineStr"/>
@@ -44083,7 +43425,7 @@
         <v>249541305.6199789</v>
       </c>
       <c r="H1272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="inlineStr"/>
@@ -44116,7 +43458,7 @@
         <v>249510116.5583789</v>
       </c>
       <c r="H1273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="inlineStr"/>
@@ -44149,7 +43491,7 @@
         <v>249510116.5583789</v>
       </c>
       <c r="H1274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
       <c r="J1274" t="inlineStr"/>
@@ -44182,7 +43524,7 @@
         <v>249570243.4724789</v>
       </c>
       <c r="H1275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
       <c r="J1275" t="inlineStr"/>
@@ -44215,7 +43557,7 @@
         <v>249570243.4724789</v>
       </c>
       <c r="H1276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
       <c r="J1276" t="inlineStr"/>
@@ -44248,7 +43590,7 @@
         <v>249454985.5893789</v>
       </c>
       <c r="H1277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1277" t="inlineStr"/>
       <c r="J1277" t="inlineStr"/>
@@ -44281,7 +43623,7 @@
         <v>249363813.2064789</v>
       </c>
       <c r="H1278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1278" t="inlineStr"/>
       <c r="J1278" t="inlineStr"/>
@@ -44314,7 +43656,7 @@
         <v>249364813.2064789</v>
       </c>
       <c r="H1279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1279" t="inlineStr"/>
       <c r="J1279" t="inlineStr"/>
@@ -44347,7 +43689,7 @@
         <v>249364813.2064789</v>
       </c>
       <c r="H1280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1280" t="inlineStr"/>
       <c r="J1280" t="inlineStr"/>
@@ -44380,7 +43722,7 @@
         <v>249158513.4098788</v>
       </c>
       <c r="H1281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1281" t="inlineStr"/>
       <c r="J1281" t="inlineStr"/>
@@ -44413,7 +43755,7 @@
         <v>248845448.1337788</v>
       </c>
       <c r="H1282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1282" t="inlineStr"/>
       <c r="J1282" t="inlineStr"/>
@@ -44446,7 +43788,7 @@
         <v>249057039.8620788</v>
       </c>
       <c r="H1283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1283" t="inlineStr"/>
       <c r="J1283" t="inlineStr"/>
@@ -44479,7 +43821,7 @@
         <v>249057039.8620788</v>
       </c>
       <c r="H1284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1284" t="inlineStr"/>
       <c r="J1284" t="inlineStr"/>
@@ -44512,7 +43854,7 @@
         <v>249142501.5038788</v>
       </c>
       <c r="H1285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1285" t="inlineStr"/>
       <c r="J1285" t="inlineStr"/>
@@ -44545,7 +43887,7 @@
         <v>249352303.6914788</v>
       </c>
       <c r="H1286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1286" t="inlineStr"/>
       <c r="J1286" t="inlineStr"/>
@@ -44578,7 +43920,7 @@
         <v>249429885.1304788</v>
       </c>
       <c r="H1287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1287" t="inlineStr"/>
       <c r="J1287" t="inlineStr"/>
@@ -44611,7 +43953,7 @@
         <v>249692228.2803788</v>
       </c>
       <c r="H1288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1288" t="inlineStr"/>
       <c r="J1288" t="inlineStr"/>
@@ -44644,7 +43986,7 @@
         <v>249692228.2803788</v>
       </c>
       <c r="H1289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1289" t="inlineStr"/>
       <c r="J1289" t="inlineStr"/>
@@ -44677,7 +44019,7 @@
         <v>249692228.2803788</v>
       </c>
       <c r="H1290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1290" t="inlineStr"/>
       <c r="J1290" t="inlineStr"/>
@@ -44710,7 +44052,7 @@
         <v>249692228.2803788</v>
       </c>
       <c r="H1291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1291" t="inlineStr"/>
       <c r="J1291" t="inlineStr"/>
@@ -44743,7 +44085,7 @@
         <v>249570999.6472788</v>
       </c>
       <c r="H1292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1292" t="inlineStr"/>
       <c r="J1292" t="inlineStr"/>
@@ -44776,7 +44118,7 @@
         <v>249570999.6472788</v>
       </c>
       <c r="H1293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1293" t="inlineStr"/>
       <c r="J1293" t="inlineStr"/>
@@ -44809,7 +44151,7 @@
         <v>249348134.6113788</v>
       </c>
       <c r="H1294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1294" t="inlineStr"/>
       <c r="J1294" t="inlineStr"/>
@@ -44842,7 +44184,7 @@
         <v>249348134.6113788</v>
       </c>
       <c r="H1295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1295" t="inlineStr"/>
       <c r="J1295" t="inlineStr"/>
@@ -44875,7 +44217,7 @@
         <v>249325131.9326788</v>
       </c>
       <c r="H1296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1296" t="inlineStr"/>
       <c r="J1296" t="inlineStr"/>
@@ -44908,7 +44250,7 @@
         <v>249448524.1208788</v>
       </c>
       <c r="H1297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1297" t="inlineStr"/>
       <c r="J1297" t="inlineStr"/>
@@ -44941,7 +44283,7 @@
         <v>249448524.1208788</v>
       </c>
       <c r="H1298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1298" t="inlineStr"/>
       <c r="J1298" t="inlineStr"/>
@@ -44974,7 +44316,7 @@
         <v>249163277.3920788</v>
       </c>
       <c r="H1299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1299" t="inlineStr"/>
       <c r="J1299" t="inlineStr"/>
@@ -45007,7 +44349,7 @@
         <v>249163277.3920788</v>
       </c>
       <c r="H1300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1300" t="inlineStr"/>
       <c r="J1300" t="inlineStr"/>
@@ -45040,7 +44382,7 @@
         <v>249819269.9213788</v>
       </c>
       <c r="H1301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1301" t="inlineStr"/>
       <c r="J1301" t="inlineStr"/>
@@ -45073,7 +44415,7 @@
         <v>250335761.3926788</v>
       </c>
       <c r="H1302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1302" t="inlineStr"/>
       <c r="J1302" t="inlineStr"/>
@@ -45106,7 +44448,7 @@
         <v>250036072.7199788</v>
       </c>
       <c r="H1303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1303" t="inlineStr"/>
       <c r="J1303" t="inlineStr"/>
@@ -45139,7 +44481,7 @@
         <v>250036072.7199788</v>
       </c>
       <c r="H1304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1304" t="inlineStr"/>
       <c r="J1304" t="inlineStr"/>
@@ -45172,7 +44514,7 @@
         <v>250036072.7199788</v>
       </c>
       <c r="H1305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1305" t="inlineStr"/>
       <c r="J1305" t="inlineStr"/>
@@ -45205,7 +44547,7 @@
         <v>250194636.8647788</v>
       </c>
       <c r="H1306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1306" t="inlineStr"/>
       <c r="J1306" t="inlineStr"/>
@@ -45238,7 +44580,7 @@
         <v>249857641.1643789</v>
       </c>
       <c r="H1307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1307" t="inlineStr"/>
       <c r="J1307" t="inlineStr"/>
@@ -45271,7 +44613,7 @@
         <v>249857641.1643789</v>
       </c>
       <c r="H1308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1308" t="inlineStr"/>
       <c r="J1308" t="inlineStr"/>
@@ -45304,7 +44646,7 @@
         <v>250037929.7197789</v>
       </c>
       <c r="H1309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1309" t="inlineStr"/>
       <c r="J1309" t="inlineStr"/>
@@ -45337,7 +44679,7 @@
         <v>250254130.3766904</v>
       </c>
       <c r="H1310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1310" t="inlineStr"/>
       <c r="J1310" t="inlineStr"/>
@@ -45370,7 +44712,7 @@
         <v>249962246.0466903</v>
       </c>
       <c r="H1311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1311" t="inlineStr"/>
       <c r="J1311" t="inlineStr"/>
@@ -45403,7 +44745,7 @@
         <v>248836569.7141903</v>
       </c>
       <c r="H1312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1312" t="inlineStr"/>
       <c r="J1312" t="inlineStr"/>
@@ -45436,7 +44778,7 @@
         <v>249146589.3820903</v>
       </c>
       <c r="H1313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1313" t="inlineStr"/>
       <c r="J1313" t="inlineStr"/>
@@ -45447,6 +44789,6 @@
       <c r="M1313" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>